--- a/raw_data/20200818_saline/20200818_Sensor2_Test_52.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor2_Test_52.xlsx
@@ -1,915 +1,1331 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A40AAA5-B7EC-4237-9138-03D61E8B814E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>46272.251477</v>
+        <v>46272.251476999998</v>
       </c>
       <c r="B2" s="1">
         <v>12.853403</v>
       </c>
       <c r="C2" s="1">
-        <v>1245.660000</v>
+        <v>1245.6600000000001</v>
       </c>
       <c r="D2" s="1">
-        <v>-280.922000</v>
+        <v>-280.92200000000003</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>46282.655528</v>
+        <v>46282.655528000003</v>
       </c>
       <c r="G2" s="1">
-        <v>12.856293</v>
+        <v>12.856293000000001</v>
       </c>
       <c r="H2" s="1">
-        <v>1267.280000</v>
+        <v>1267.28</v>
       </c>
       <c r="I2" s="1">
-        <v>-246.059000</v>
+        <v>-246.059</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>46293.076501</v>
+        <v>46293.076501000003</v>
       </c>
       <c r="L2" s="1">
         <v>12.859188</v>
       </c>
       <c r="M2" s="1">
-        <v>1302.400000</v>
+        <v>1302.4000000000001</v>
       </c>
       <c r="N2" s="1">
-        <v>-193.790000</v>
+        <v>-193.79</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>46303.587192</v>
+        <v>46303.587191999999</v>
       </c>
       <c r="Q2" s="1">
-        <v>12.862108</v>
+        <v>12.862107999999999</v>
       </c>
       <c r="R2" s="1">
-        <v>1315.120000</v>
+        <v>1315.12</v>
       </c>
       <c r="S2" s="1">
-        <v>-178.746000</v>
+        <v>-178.74600000000001</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>46314.124238</v>
+        <v>46314.124237999997</v>
       </c>
       <c r="V2" s="1">
-        <v>12.865035</v>
+        <v>12.865035000000001</v>
       </c>
       <c r="W2" s="1">
-        <v>1329.300000</v>
+        <v>1329.3</v>
       </c>
       <c r="X2" s="1">
-        <v>-167.925000</v>
+        <v>-167.92500000000001</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>46324.883917</v>
+        <v>46324.883916999999</v>
       </c>
       <c r="AA2" s="1">
-        <v>12.868023</v>
+        <v>12.868023000000001</v>
       </c>
       <c r="AB2" s="1">
-        <v>1347.780000</v>
+        <v>1347.78</v>
       </c>
       <c r="AC2" s="1">
-        <v>-167.307000</v>
+        <v>-167.30699999999999</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>46335.429358</v>
+        <v>46335.429358000001</v>
       </c>
       <c r="AF2" s="1">
         <v>12.870953</v>
       </c>
       <c r="AG2" s="1">
-        <v>1361.250000</v>
+        <v>1361.25</v>
       </c>
       <c r="AH2" s="1">
-        <v>-177.773000</v>
+        <v>-177.773</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>46345.860225</v>
+        <v>46345.860224999997</v>
       </c>
       <c r="AK2" s="1">
-        <v>12.873850</v>
+        <v>12.873849999999999</v>
       </c>
       <c r="AL2" s="1">
-        <v>1382.460000</v>
+        <v>1382.46</v>
       </c>
       <c r="AM2" s="1">
-        <v>-208.130000</v>
+        <v>-208.13</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>46356.754851</v>
+        <v>46356.754850999998</v>
       </c>
       <c r="AP2" s="1">
-        <v>12.876876</v>
+        <v>12.876875999999999</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1404.340000</v>
+        <v>1404.34</v>
       </c>
       <c r="AR2" s="1">
-        <v>-252.173000</v>
+        <v>-252.173</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>46368.083651</v>
+        <v>46368.083651000001</v>
       </c>
       <c r="AU2" s="1">
         <v>12.880023</v>
       </c>
       <c r="AV2" s="1">
-        <v>1429.050000</v>
+        <v>1429.05</v>
       </c>
       <c r="AW2" s="1">
-        <v>-312.217000</v>
+        <v>-312.21699999999998</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>46378.817920</v>
+        <v>46378.817920000001</v>
       </c>
       <c r="AZ2" s="1">
-        <v>12.883005</v>
+        <v>12.883005000000001</v>
       </c>
       <c r="BA2" s="1">
-        <v>1448.420000</v>
+        <v>1448.42</v>
       </c>
       <c r="BB2" s="1">
-        <v>-364.360000</v>
+        <v>-364.36</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>46389.507174</v>
+        <v>46389.507173999998</v>
       </c>
       <c r="BE2" s="1">
-        <v>12.885974</v>
+        <v>12.885973999999999</v>
       </c>
       <c r="BF2" s="1">
-        <v>1533.830000</v>
+        <v>1533.83</v>
       </c>
       <c r="BG2" s="1">
-        <v>-612.530000</v>
+        <v>-612.53</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>46400.158760</v>
+        <v>46400.158759999998</v>
       </c>
       <c r="BJ2" s="1">
         <v>12.888933</v>
       </c>
       <c r="BK2" s="1">
-        <v>1688.300000</v>
+        <v>1688.3</v>
       </c>
       <c r="BL2" s="1">
-        <v>-1057.280000</v>
+        <v>-1057.28</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
         <v>46411.273148</v>
       </c>
       <c r="BO2" s="1">
-        <v>12.892020</v>
+        <v>12.89202</v>
       </c>
       <c r="BP2" s="1">
-        <v>1982.670000</v>
+        <v>1982.67</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-1827.580000</v>
+        <v>-1827.58</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>46422.013483</v>
+        <v>46422.013483000002</v>
       </c>
       <c r="BT2" s="1">
         <v>12.895004</v>
       </c>
       <c r="BU2" s="1">
-        <v>2372.070000</v>
+        <v>2372.0700000000002</v>
       </c>
       <c r="BV2" s="1">
-        <v>-2715.760000</v>
+        <v>-2715.76</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
         <v>46433.501355</v>
       </c>
       <c r="BY2" s="1">
-        <v>12.898195</v>
+        <v>12.898194999999999</v>
       </c>
       <c r="BZ2" s="1">
-        <v>2853.180000</v>
+        <v>2853.18</v>
       </c>
       <c r="CA2" s="1">
-        <v>-3688.210000</v>
+        <v>-3688.21</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>46444.435165</v>
+        <v>46444.435165000003</v>
       </c>
       <c r="CD2" s="1">
         <v>12.901232</v>
       </c>
       <c r="CE2" s="1">
-        <v>4281.540000</v>
+        <v>4281.54</v>
       </c>
       <c r="CF2" s="1">
-        <v>-6030.980000</v>
+        <v>-6030.98</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>46272.612529</v>
+        <v>46272.612528999998</v>
       </c>
       <c r="B3" s="1">
         <v>12.853503</v>
       </c>
       <c r="C3" s="1">
-        <v>1245.890000</v>
+        <v>1245.8900000000001</v>
       </c>
       <c r="D3" s="1">
-        <v>-280.621000</v>
+        <v>-280.62099999999998</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>46282.998756</v>
+        <v>46282.998756000001</v>
       </c>
       <c r="G3" s="1">
         <v>12.856389</v>
       </c>
       <c r="H3" s="1">
-        <v>1268.050000</v>
+        <v>1268.05</v>
       </c>
       <c r="I3" s="1">
-        <v>-244.926000</v>
+        <v>-244.92599999999999</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>46293.460373</v>
+        <v>46293.460373000002</v>
       </c>
       <c r="L3" s="1">
-        <v>12.859295</v>
+        <v>12.859294999999999</v>
       </c>
       <c r="M3" s="1">
-        <v>1302.270000</v>
+        <v>1302.27</v>
       </c>
       <c r="N3" s="1">
-        <v>-194.021000</v>
+        <v>-194.02099999999999</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>46304.280599</v>
+        <v>46304.280598999998</v>
       </c>
       <c r="Q3" s="1">
-        <v>12.862300</v>
+        <v>12.862299999999999</v>
       </c>
       <c r="R3" s="1">
-        <v>1315.070000</v>
+        <v>1315.07</v>
       </c>
       <c r="S3" s="1">
-        <v>-178.807000</v>
+        <v>-178.80699999999999</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>46314.834474</v>
+        <v>46314.834474000003</v>
       </c>
       <c r="V3" s="1">
-        <v>12.865232</v>
+        <v>12.865232000000001</v>
       </c>
       <c r="W3" s="1">
-        <v>1329.360000</v>
+        <v>1329.36</v>
       </c>
       <c r="X3" s="1">
-        <v>-167.718000</v>
+        <v>-167.71799999999999</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>46325.227147</v>
+        <v>46325.227146999998</v>
       </c>
       <c r="AA3" s="1">
         <v>12.868119</v>
       </c>
       <c r="AB3" s="1">
-        <v>1347.750000</v>
+        <v>1347.75</v>
       </c>
       <c r="AC3" s="1">
-        <v>-167.382000</v>
+        <v>-167.38200000000001</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>46335.788958</v>
+        <v>46335.788957999997</v>
       </c>
       <c r="AF3" s="1">
-        <v>12.871052</v>
+        <v>12.871052000000001</v>
       </c>
       <c r="AG3" s="1">
-        <v>1361.260000</v>
+        <v>1361.26</v>
       </c>
       <c r="AH3" s="1">
-        <v>-177.822000</v>
+        <v>-177.822</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
         <v>46346.220856</v>
       </c>
       <c r="AK3" s="1">
-        <v>12.873950</v>
+        <v>12.873950000000001</v>
       </c>
       <c r="AL3" s="1">
-        <v>1382.420000</v>
+        <v>1382.42</v>
       </c>
       <c r="AM3" s="1">
-        <v>-208.167000</v>
+        <v>-208.167</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>46357.461152</v>
+        <v>46357.461152000003</v>
       </c>
       <c r="AP3" s="1">
-        <v>12.877073</v>
+        <v>12.877072999999999</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1404.340000</v>
+        <v>1404.34</v>
       </c>
       <c r="AR3" s="1">
-        <v>-252.167000</v>
+        <v>-252.167</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>46368.191634</v>
+        <v>46368.191634000003</v>
       </c>
       <c r="AU3" s="1">
         <v>12.880053</v>
       </c>
       <c r="AV3" s="1">
-        <v>1429.040000</v>
+        <v>1429.04</v>
       </c>
       <c r="AW3" s="1">
-        <v>-312.204000</v>
+        <v>-312.20400000000001</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>46379.240484</v>
+        <v>46379.240484000002</v>
       </c>
       <c r="AZ3" s="1">
         <v>12.883122</v>
       </c>
       <c r="BA3" s="1">
-        <v>1448.400000</v>
+        <v>1448.4</v>
       </c>
       <c r="BB3" s="1">
-        <v>-364.335000</v>
+        <v>-364.33499999999998</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>46389.866277</v>
+        <v>46389.866277000001</v>
       </c>
       <c r="BE3" s="1">
-        <v>12.886074</v>
+        <v>12.886074000000001</v>
       </c>
       <c r="BF3" s="1">
-        <v>1533.800000</v>
+        <v>1533.8</v>
       </c>
       <c r="BG3" s="1">
-        <v>-612.533000</v>
+        <v>-612.53300000000002</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
         <v>46400.570967</v>
@@ -918,135 +1334,135 @@
         <v>12.889047</v>
       </c>
       <c r="BK3" s="1">
-        <v>1688.230000</v>
+        <v>1688.23</v>
       </c>
       <c r="BL3" s="1">
-        <v>-1057.320000</v>
+        <v>-1057.32</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>46411.679832</v>
+        <v>46411.679832000002</v>
       </c>
       <c r="BO3" s="1">
-        <v>12.892133</v>
+        <v>12.892132999999999</v>
       </c>
       <c r="BP3" s="1">
-        <v>1982.470000</v>
+        <v>1982.47</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-1827.720000</v>
+        <v>-1827.72</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
         <v>46422.520892</v>
       </c>
       <c r="BT3" s="1">
-        <v>12.895145</v>
+        <v>12.895144999999999</v>
       </c>
       <c r="BU3" s="1">
-        <v>2371.790000</v>
+        <v>2371.79</v>
       </c>
       <c r="BV3" s="1">
-        <v>-2715.410000</v>
+        <v>-2715.41</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>46433.668517</v>
+        <v>46433.668516999998</v>
       </c>
       <c r="BY3" s="1">
-        <v>12.898241</v>
+        <v>12.898241000000001</v>
       </c>
       <c r="BZ3" s="1">
-        <v>2851.550000</v>
+        <v>2851.55</v>
       </c>
       <c r="CA3" s="1">
-        <v>-3687.990000</v>
+        <v>-3687.99</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>46444.694074</v>
+        <v>46444.694073999999</v>
       </c>
       <c r="CD3" s="1">
         <v>12.901304</v>
       </c>
       <c r="CE3" s="1">
-        <v>4269.290000</v>
+        <v>4269.29</v>
       </c>
       <c r="CF3" s="1">
-        <v>-6039.270000</v>
+        <v>-6039.27</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>46272.952784</v>
+        <v>46272.952784000001</v>
       </c>
       <c r="B4" s="1">
         <v>12.853598</v>
       </c>
       <c r="C4" s="1">
-        <v>1245.840000</v>
+        <v>1245.8399999999999</v>
       </c>
       <c r="D4" s="1">
-        <v>-280.232000</v>
+        <v>-280.23200000000003</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>46283.691171</v>
+        <v>46283.691170999999</v>
       </c>
       <c r="G4" s="1">
         <v>12.856581</v>
       </c>
       <c r="H4" s="1">
-        <v>1267.640000</v>
+        <v>1267.6400000000001</v>
       </c>
       <c r="I4" s="1">
-        <v>-245.440000</v>
+        <v>-245.44</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>46294.153815</v>
+        <v>46294.153814999998</v>
       </c>
       <c r="L4" s="1">
         <v>12.859487</v>
       </c>
       <c r="M4" s="1">
-        <v>1302.260000</v>
+        <v>1302.26</v>
       </c>
       <c r="N4" s="1">
-        <v>-193.761000</v>
+        <v>-193.761</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>46304.624358</v>
+        <v>46304.624358000001</v>
       </c>
       <c r="Q4" s="1">
         <v>12.862396</v>
       </c>
       <c r="R4" s="1">
-        <v>1315.070000</v>
+        <v>1315.07</v>
       </c>
       <c r="S4" s="1">
-        <v>-178.871000</v>
+        <v>-178.87100000000001</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
         <v>46315.179224</v>
@@ -1055,285 +1471,285 @@
         <v>12.865328</v>
       </c>
       <c r="W4" s="1">
-        <v>1329.360000</v>
+        <v>1329.36</v>
       </c>
       <c r="X4" s="1">
-        <v>-167.785000</v>
+        <v>-167.785</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>46325.575340</v>
+        <v>46325.575340000003</v>
       </c>
       <c r="AA4" s="1">
-        <v>12.868215</v>
+        <v>12.868214999999999</v>
       </c>
       <c r="AB4" s="1">
-        <v>1347.740000</v>
+        <v>1347.74</v>
       </c>
       <c r="AC4" s="1">
-        <v>-167.339000</v>
+        <v>-167.339</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>46336.440205</v>
+        <v>46336.440204999999</v>
       </c>
       <c r="AF4" s="1">
         <v>12.871233</v>
       </c>
       <c r="AG4" s="1">
-        <v>1361.320000</v>
+        <v>1361.32</v>
       </c>
       <c r="AH4" s="1">
-        <v>-177.819000</v>
+        <v>-177.81899999999999</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>46346.878510</v>
+        <v>46346.878510000002</v>
       </c>
       <c r="AK4" s="1">
         <v>12.874133</v>
       </c>
       <c r="AL4" s="1">
-        <v>1382.410000</v>
+        <v>1382.41</v>
       </c>
       <c r="AM4" s="1">
-        <v>-208.136000</v>
+        <v>-208.136</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>46357.870353</v>
+        <v>46357.870352999998</v>
       </c>
       <c r="AP4" s="1">
         <v>12.877186</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1404.320000</v>
+        <v>1404.32</v>
       </c>
       <c r="AR4" s="1">
-        <v>-252.154000</v>
+        <v>-252.154</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>46368.550210</v>
+        <v>46368.550210000001</v>
       </c>
       <c r="AU4" s="1">
         <v>12.880153</v>
       </c>
       <c r="AV4" s="1">
-        <v>1429.050000</v>
+        <v>1429.05</v>
       </c>
       <c r="AW4" s="1">
-        <v>-312.227000</v>
+        <v>-312.22699999999998</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>46379.599091</v>
+        <v>46379.599090999996</v>
       </c>
       <c r="AZ4" s="1">
         <v>12.883222</v>
       </c>
       <c r="BA4" s="1">
-        <v>1448.390000</v>
+        <v>1448.39</v>
       </c>
       <c r="BB4" s="1">
-        <v>-364.320000</v>
+        <v>-364.32</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>46390.225381</v>
+        <v>46390.225380999997</v>
       </c>
       <c r="BE4" s="1">
         <v>12.886174</v>
       </c>
       <c r="BF4" s="1">
-        <v>1533.810000</v>
+        <v>1533.81</v>
       </c>
       <c r="BG4" s="1">
-        <v>-612.504000</v>
+        <v>-612.50400000000002</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>46400.989558</v>
+        <v>46400.989558000001</v>
       </c>
       <c r="BJ4" s="1">
-        <v>12.889164</v>
+        <v>12.889163999999999</v>
       </c>
       <c r="BK4" s="1">
-        <v>1688.210000</v>
+        <v>1688.21</v>
       </c>
       <c r="BL4" s="1">
-        <v>-1057.280000</v>
+        <v>-1057.28</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>46412.098990</v>
+        <v>46412.098989999999</v>
       </c>
       <c r="BO4" s="1">
-        <v>12.892250</v>
+        <v>12.892250000000001</v>
       </c>
       <c r="BP4" s="1">
-        <v>1982.560000</v>
+        <v>1982.56</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-1827.780000</v>
+        <v>-1827.78</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>46422.953402</v>
+        <v>46422.953401999999</v>
       </c>
       <c r="BT4" s="1">
         <v>12.895265</v>
       </c>
       <c r="BU4" s="1">
-        <v>2371.070000</v>
+        <v>2371.0700000000002</v>
       </c>
       <c r="BV4" s="1">
-        <v>-2715.140000</v>
+        <v>-2715.14</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>46434.091102</v>
+        <v>46434.091101999999</v>
       </c>
       <c r="BY4" s="1">
-        <v>12.898359</v>
+        <v>12.898358999999999</v>
       </c>
       <c r="BZ4" s="1">
-        <v>2852.140000</v>
+        <v>2852.14</v>
       </c>
       <c r="CA4" s="1">
-        <v>-3688.850000</v>
+        <v>-3688.85</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>46445.227245</v>
+        <v>46445.227245000002</v>
       </c>
       <c r="CD4" s="1">
-        <v>12.901452</v>
+        <v>12.901452000000001</v>
       </c>
       <c r="CE4" s="1">
-        <v>4278.610000</v>
+        <v>4278.6099999999997</v>
       </c>
       <c r="CF4" s="1">
-        <v>-6020.220000</v>
+        <v>-6020.22</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>46273.643712</v>
+        <v>46273.643711999997</v>
       </c>
       <c r="B5" s="1">
-        <v>12.853790</v>
+        <v>12.85379</v>
       </c>
       <c r="C5" s="1">
-        <v>1245.870000</v>
+        <v>1245.8699999999999</v>
       </c>
       <c r="D5" s="1">
-        <v>-280.280000</v>
+        <v>-280.27999999999997</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>46284.032915</v>
+        <v>46284.032915000003</v>
       </c>
       <c r="G5" s="1">
         <v>12.856676</v>
       </c>
       <c r="H5" s="1">
-        <v>1268.240000</v>
+        <v>1268.24</v>
       </c>
       <c r="I5" s="1">
-        <v>-246.304000</v>
+        <v>-246.304</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>46294.499518</v>
+        <v>46294.499517999997</v>
       </c>
       <c r="L5" s="1">
-        <v>12.859583</v>
+        <v>12.859583000000001</v>
       </c>
       <c r="M5" s="1">
-        <v>1302.430000</v>
+        <v>1302.43</v>
       </c>
       <c r="N5" s="1">
-        <v>-193.671000</v>
+        <v>-193.67099999999999</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>46304.972545</v>
+        <v>46304.972544999997</v>
       </c>
       <c r="Q5" s="1">
         <v>12.862492</v>
       </c>
       <c r="R5" s="1">
-        <v>1315.060000</v>
+        <v>1315.06</v>
       </c>
       <c r="S5" s="1">
-        <v>-178.855000</v>
+        <v>-178.85499999999999</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
         <v>46315.831928</v>
       </c>
       <c r="V5" s="1">
-        <v>12.865509</v>
+        <v>12.865508999999999</v>
       </c>
       <c r="W5" s="1">
-        <v>1329.410000</v>
+        <v>1329.41</v>
       </c>
       <c r="X5" s="1">
-        <v>-167.627000</v>
+        <v>-167.62700000000001</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>46326.240507</v>
+        <v>46326.240507000002</v>
       </c>
       <c r="AA5" s="1">
-        <v>12.868400</v>
+        <v>12.868399999999999</v>
       </c>
       <c r="AB5" s="1">
-        <v>1347.810000</v>
+        <v>1347.81</v>
       </c>
       <c r="AC5" s="1">
-        <v>-167.387000</v>
+        <v>-167.387</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
         <v>46336.817659</v>
@@ -1342,225 +1758,225 @@
         <v>12.871338</v>
       </c>
       <c r="AG5" s="1">
-        <v>1361.210000</v>
+        <v>1361.21</v>
       </c>
       <c r="AH5" s="1">
-        <v>-177.779000</v>
+        <v>-177.779</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>46347.266879</v>
+        <v>46347.266879000003</v>
       </c>
       <c r="AK5" s="1">
         <v>12.874241</v>
       </c>
       <c r="AL5" s="1">
-        <v>1382.420000</v>
+        <v>1382.42</v>
       </c>
       <c r="AM5" s="1">
-        <v>-208.167000</v>
+        <v>-208.167</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>46358.258719</v>
+        <v>46358.258718999998</v>
       </c>
       <c r="AP5" s="1">
-        <v>12.877294</v>
+        <v>12.877293999999999</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1404.320000</v>
+        <v>1404.32</v>
       </c>
       <c r="AR5" s="1">
-        <v>-252.137000</v>
+        <v>-252.137</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>46368.914273</v>
+        <v>46368.914273000002</v>
       </c>
       <c r="AU5" s="1">
-        <v>12.880254</v>
+        <v>12.880254000000001</v>
       </c>
       <c r="AV5" s="1">
-        <v>1429.060000</v>
+        <v>1429.06</v>
       </c>
       <c r="AW5" s="1">
-        <v>-312.193000</v>
+        <v>-312.19299999999998</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>46379.957700</v>
+        <v>46379.957699999999</v>
       </c>
       <c r="AZ5" s="1">
         <v>12.883322</v>
       </c>
       <c r="BA5" s="1">
-        <v>1448.410000</v>
+        <v>1448.41</v>
       </c>
       <c r="BB5" s="1">
-        <v>-364.311000</v>
+        <v>-364.31099999999998</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>46390.652965</v>
+        <v>46390.652965000001</v>
       </c>
       <c r="BE5" s="1">
-        <v>12.886292</v>
+        <v>12.886291999999999</v>
       </c>
       <c r="BF5" s="1">
-        <v>1533.780000</v>
+        <v>1533.78</v>
       </c>
       <c r="BG5" s="1">
-        <v>-612.525000</v>
+        <v>-612.52499999999998</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>46401.351174</v>
+        <v>46401.351174000003</v>
       </c>
       <c r="BJ5" s="1">
-        <v>12.889264</v>
+        <v>12.889264000000001</v>
       </c>
       <c r="BK5" s="1">
-        <v>1688.210000</v>
+        <v>1688.21</v>
       </c>
       <c r="BL5" s="1">
-        <v>-1057.350000</v>
+        <v>-1057.3499999999999</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>46412.495255</v>
+        <v>46412.495255000002</v>
       </c>
       <c r="BO5" s="1">
-        <v>12.892360</v>
+        <v>12.89236</v>
       </c>
       <c r="BP5" s="1">
-        <v>1982.400000</v>
+        <v>1982.4</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-1827.760000</v>
+        <v>-1827.76</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>46423.366570</v>
+        <v>46423.366569999998</v>
       </c>
       <c r="BT5" s="1">
-        <v>12.895380</v>
+        <v>12.895379999999999</v>
       </c>
       <c r="BU5" s="1">
-        <v>2370.660000</v>
+        <v>2370.66</v>
       </c>
       <c r="BV5" s="1">
-        <v>-2714.790000</v>
+        <v>-2714.79</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>46434.505755</v>
+        <v>46434.505754999998</v>
       </c>
       <c r="BY5" s="1">
         <v>12.898474</v>
       </c>
       <c r="BZ5" s="1">
-        <v>2852.280000</v>
+        <v>2852.28</v>
       </c>
       <c r="CA5" s="1">
-        <v>-3688.670000</v>
+        <v>-3688.67</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>46445.767389</v>
+        <v>46445.767389000001</v>
       </c>
       <c r="CD5" s="1">
         <v>12.901602</v>
       </c>
       <c r="CE5" s="1">
-        <v>4260.460000</v>
+        <v>4260.46</v>
       </c>
       <c r="CF5" s="1">
-        <v>-6037.800000</v>
+        <v>-6037.8</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>46273.985486</v>
+        <v>46273.985485999998</v>
       </c>
       <c r="B6" s="1">
         <v>12.853885</v>
       </c>
       <c r="C6" s="1">
-        <v>1246.060000</v>
+        <v>1246.06</v>
       </c>
       <c r="D6" s="1">
-        <v>-280.429000</v>
+        <v>-280.42899999999997</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>46284.381602</v>
+        <v>46284.381602000001</v>
       </c>
       <c r="G6" s="1">
         <v>12.856773</v>
       </c>
       <c r="H6" s="1">
-        <v>1267.520000</v>
+        <v>1267.52</v>
       </c>
       <c r="I6" s="1">
-        <v>-245.209000</v>
+        <v>-245.209</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>46294.844708</v>
+        <v>46294.844707999997</v>
       </c>
       <c r="L6" s="1">
         <v>12.859679</v>
       </c>
       <c r="M6" s="1">
-        <v>1302.610000</v>
+        <v>1302.6099999999999</v>
       </c>
       <c r="N6" s="1">
-        <v>-193.559000</v>
+        <v>-193.559</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
         <v>46305.639141</v>
       </c>
       <c r="Q6" s="1">
-        <v>12.862678</v>
+        <v>12.862678000000001</v>
       </c>
       <c r="R6" s="1">
-        <v>1314.940000</v>
+        <v>1314.94</v>
       </c>
       <c r="S6" s="1">
-        <v>-178.701000</v>
+        <v>-178.70099999999999</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
         <v>46316.208392</v>
@@ -1569,118 +1985,118 @@
         <v>12.865613</v>
       </c>
       <c r="W6" s="1">
-        <v>1329.410000</v>
+        <v>1329.41</v>
       </c>
       <c r="X6" s="1">
-        <v>-167.680000</v>
+        <v>-167.68</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>46326.622921</v>
+        <v>46326.622921000002</v>
       </c>
       <c r="AA6" s="1">
         <v>12.868506</v>
       </c>
       <c r="AB6" s="1">
-        <v>1347.810000</v>
+        <v>1347.81</v>
       </c>
       <c r="AC6" s="1">
-        <v>-167.357000</v>
+        <v>-167.357</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>46337.163371</v>
+        <v>46337.163371000002</v>
       </c>
       <c r="AF6" s="1">
-        <v>12.871434</v>
+        <v>12.871434000000001</v>
       </c>
       <c r="AG6" s="1">
-        <v>1361.270000</v>
+        <v>1361.27</v>
       </c>
       <c r="AH6" s="1">
-        <v>-177.842000</v>
+        <v>-177.84200000000001</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>46347.639380</v>
+        <v>46347.639380000001</v>
       </c>
       <c r="AK6" s="1">
-        <v>12.874344</v>
+        <v>12.874344000000001</v>
       </c>
       <c r="AL6" s="1">
-        <v>1382.420000</v>
+        <v>1382.42</v>
       </c>
       <c r="AM6" s="1">
-        <v>-208.119000</v>
+        <v>-208.119</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>46358.638659</v>
+        <v>46358.638658999997</v>
       </c>
       <c r="AP6" s="1">
-        <v>12.877400</v>
+        <v>12.8774</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1404.360000</v>
+        <v>1404.36</v>
       </c>
       <c r="AR6" s="1">
-        <v>-252.153000</v>
+        <v>-252.15299999999999</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>46369.339377</v>
+        <v>46369.339376999997</v>
       </c>
       <c r="AU6" s="1">
-        <v>12.880372</v>
+        <v>12.880371999999999</v>
       </c>
       <c r="AV6" s="1">
-        <v>1429.040000</v>
+        <v>1429.04</v>
       </c>
       <c r="AW6" s="1">
-        <v>-312.222000</v>
+        <v>-312.22199999999998</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>46380.442291</v>
+        <v>46380.442290999999</v>
       </c>
       <c r="AZ6" s="1">
-        <v>12.883456</v>
+        <v>12.883456000000001</v>
       </c>
       <c r="BA6" s="1">
-        <v>1448.420000</v>
+        <v>1448.42</v>
       </c>
       <c r="BB6" s="1">
-        <v>-364.306000</v>
+        <v>-364.30599999999998</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>46390.951060</v>
+        <v>46390.951059999999</v>
       </c>
       <c r="BE6" s="1">
-        <v>12.886375</v>
+        <v>12.886374999999999</v>
       </c>
       <c r="BF6" s="1">
-        <v>1533.830000</v>
+        <v>1533.83</v>
       </c>
       <c r="BG6" s="1">
-        <v>-612.532000</v>
+        <v>-612.53200000000004</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
         <v>46401.726615</v>
@@ -1689,43 +2105,43 @@
         <v>12.889369</v>
       </c>
       <c r="BK6" s="1">
-        <v>1688.210000</v>
+        <v>1688.21</v>
       </c>
       <c r="BL6" s="1">
-        <v>-1057.330000</v>
+        <v>-1057.33</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
         <v>46412.920823</v>
       </c>
       <c r="BO6" s="1">
-        <v>12.892478</v>
+        <v>12.892478000000001</v>
       </c>
       <c r="BP6" s="1">
-        <v>1982.390000</v>
+        <v>1982.39</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-1827.790000</v>
+        <v>-1827.79</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>46423.797128</v>
+        <v>46423.797127999998</v>
       </c>
       <c r="BT6" s="1">
-        <v>12.895499</v>
+        <v>12.895498999999999</v>
       </c>
       <c r="BU6" s="1">
-        <v>2370.110000</v>
+        <v>2370.11</v>
       </c>
       <c r="BV6" s="1">
-        <v>-2714.970000</v>
+        <v>-2714.97</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
         <v>46434.946698</v>
@@ -1734,754 +2150,754 @@
         <v>12.898596</v>
       </c>
       <c r="BZ6" s="1">
-        <v>2852.050000</v>
+        <v>2852.05</v>
       </c>
       <c r="CA6" s="1">
-        <v>-3687.900000</v>
+        <v>-3687.9</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>46446.309721</v>
+        <v>46446.309720999998</v>
       </c>
       <c r="CD6" s="1">
-        <v>12.901753</v>
+        <v>12.901752999999999</v>
       </c>
       <c r="CE6" s="1">
-        <v>4278.270000</v>
+        <v>4278.2700000000004</v>
       </c>
       <c r="CF6" s="1">
-        <v>-6028.750000</v>
+        <v>-6028.75</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>46274.328219</v>
+        <v>46274.328219000003</v>
       </c>
       <c r="B7" s="1">
-        <v>12.853980</v>
+        <v>12.85398</v>
       </c>
       <c r="C7" s="1">
-        <v>1245.870000</v>
+        <v>1245.8699999999999</v>
       </c>
       <c r="D7" s="1">
-        <v>-280.485000</v>
+        <v>-280.48500000000001</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>46285.048262</v>
+        <v>46285.048261999997</v>
       </c>
       <c r="G7" s="1">
-        <v>12.856958</v>
+        <v>12.856958000000001</v>
       </c>
       <c r="H7" s="1">
-        <v>1268.370000</v>
+        <v>1268.3699999999999</v>
       </c>
       <c r="I7" s="1">
-        <v>-244.932000</v>
+        <v>-244.93199999999999</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>46295.501906</v>
+        <v>46295.501905999998</v>
       </c>
       <c r="L7" s="1">
         <v>12.859862</v>
       </c>
       <c r="M7" s="1">
-        <v>1302.530000</v>
+        <v>1302.53</v>
       </c>
       <c r="N7" s="1">
-        <v>-193.951000</v>
+        <v>-193.95099999999999</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>46306.019572</v>
+        <v>46306.019571999997</v>
       </c>
       <c r="Q7" s="1">
         <v>12.862783</v>
       </c>
       <c r="R7" s="1">
-        <v>1315.090000</v>
+        <v>1315.09</v>
       </c>
       <c r="S7" s="1">
-        <v>-178.742000</v>
+        <v>-178.74199999999999</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>46316.550170</v>
+        <v>46316.550170000002</v>
       </c>
       <c r="V7" s="1">
         <v>12.865708</v>
       </c>
       <c r="W7" s="1">
-        <v>1329.340000</v>
+        <v>1329.34</v>
       </c>
       <c r="X7" s="1">
-        <v>-167.835000</v>
+        <v>-167.83500000000001</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>46326.968600</v>
+        <v>46326.9686</v>
       </c>
       <c r="AA7" s="1">
-        <v>12.868602</v>
+        <v>12.868601999999999</v>
       </c>
       <c r="AB7" s="1">
-        <v>1347.820000</v>
+        <v>1347.82</v>
       </c>
       <c r="AC7" s="1">
-        <v>-167.377000</v>
+        <v>-167.37700000000001</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>46337.508587</v>
+        <v>46337.508586999997</v>
       </c>
       <c r="AF7" s="1">
-        <v>12.871530</v>
+        <v>12.87153</v>
       </c>
       <c r="AG7" s="1">
-        <v>1361.350000</v>
+        <v>1361.35</v>
       </c>
       <c r="AH7" s="1">
-        <v>-177.685000</v>
+        <v>-177.685</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>46348.257399</v>
+        <v>46348.257399000002</v>
       </c>
       <c r="AK7" s="1">
         <v>12.874516</v>
       </c>
       <c r="AL7" s="1">
-        <v>1382.410000</v>
+        <v>1382.41</v>
       </c>
       <c r="AM7" s="1">
-        <v>-208.151000</v>
+        <v>-208.15100000000001</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>46359.071166</v>
+        <v>46359.071166000002</v>
       </c>
       <c r="AP7" s="1">
-        <v>12.877520</v>
+        <v>12.877520000000001</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1404.320000</v>
+        <v>1404.32</v>
       </c>
       <c r="AR7" s="1">
-        <v>-252.159000</v>
+        <v>-252.15899999999999</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>46369.641904</v>
+        <v>46369.641903999996</v>
       </c>
       <c r="AU7" s="1">
-        <v>12.880456</v>
+        <v>12.880456000000001</v>
       </c>
       <c r="AV7" s="1">
-        <v>1429.030000</v>
+        <v>1429.03</v>
       </c>
       <c r="AW7" s="1">
-        <v>-312.203000</v>
+        <v>-312.20299999999997</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>46380.703186</v>
+        <v>46380.703185999999</v>
       </c>
       <c r="AZ7" s="1">
-        <v>12.883529</v>
+        <v>12.883528999999999</v>
       </c>
       <c r="BA7" s="1">
-        <v>1448.410000</v>
+        <v>1448.41</v>
       </c>
       <c r="BB7" s="1">
-        <v>-364.360000</v>
+        <v>-364.36</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>46391.310165</v>
+        <v>46391.310165000003</v>
       </c>
       <c r="BE7" s="1">
-        <v>12.886475</v>
+        <v>12.886475000000001</v>
       </c>
       <c r="BF7" s="1">
-        <v>1533.800000</v>
+        <v>1533.8</v>
       </c>
       <c r="BG7" s="1">
-        <v>-612.553000</v>
+        <v>-612.553</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>46402.102086</v>
+        <v>46402.102085999999</v>
       </c>
       <c r="BJ7" s="1">
-        <v>12.889473</v>
+        <v>12.889473000000001</v>
       </c>
       <c r="BK7" s="1">
-        <v>1688.130000</v>
+        <v>1688.13</v>
       </c>
       <c r="BL7" s="1">
-        <v>-1057.370000</v>
+        <v>-1057.3699999999999</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>46413.314678</v>
+        <v>46413.314678000002</v>
       </c>
       <c r="BO7" s="1">
-        <v>12.892587</v>
+        <v>12.892587000000001</v>
       </c>
       <c r="BP7" s="1">
-        <v>1982.350000</v>
+        <v>1982.35</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-1827.680000</v>
+        <v>-1827.68</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
         <v>46424.225177</v>
       </c>
       <c r="BT7" s="1">
-        <v>12.895618</v>
+        <v>12.895618000000001</v>
       </c>
       <c r="BU7" s="1">
-        <v>2369.710000</v>
+        <v>2369.71</v>
       </c>
       <c r="BV7" s="1">
-        <v>-2714.590000</v>
+        <v>-2714.59</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>46435.377195</v>
+        <v>46435.377195000001</v>
       </c>
       <c r="BY7" s="1">
         <v>12.898716</v>
       </c>
       <c r="BZ7" s="1">
-        <v>2851.540000</v>
+        <v>2851.54</v>
       </c>
       <c r="CA7" s="1">
-        <v>-3688.220000</v>
+        <v>-3688.22</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>46446.924101</v>
+        <v>46446.924100999997</v>
       </c>
       <c r="CD7" s="1">
         <v>12.901923</v>
       </c>
       <c r="CE7" s="1">
-        <v>4266.690000</v>
+        <v>4266.6899999999996</v>
       </c>
       <c r="CF7" s="1">
-        <v>-6037.270000</v>
+        <v>-6037.27</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>46274.992335</v>
+        <v>46274.992335000003</v>
       </c>
       <c r="B8" s="1">
         <v>12.854165</v>
       </c>
       <c r="C8" s="1">
-        <v>1245.650000</v>
+        <v>1245.6500000000001</v>
       </c>
       <c r="D8" s="1">
-        <v>-280.459000</v>
+        <v>-280.459</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>46285.414271</v>
+        <v>46285.414271000001</v>
       </c>
       <c r="G8" s="1">
-        <v>12.857060</v>
+        <v>12.857060000000001</v>
       </c>
       <c r="H8" s="1">
-        <v>1268.140000</v>
+        <v>1268.1400000000001</v>
       </c>
       <c r="I8" s="1">
-        <v>-244.921000</v>
+        <v>-244.92099999999999</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>46295.881346</v>
+        <v>46295.881346000002</v>
       </c>
       <c r="L8" s="1">
-        <v>12.859967</v>
+        <v>12.859966999999999</v>
       </c>
       <c r="M8" s="1">
-        <v>1302.340000</v>
+        <v>1302.3399999999999</v>
       </c>
       <c r="N8" s="1">
-        <v>-193.924000</v>
+        <v>-193.92400000000001</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>46306.366277</v>
+        <v>46306.366277000001</v>
       </c>
       <c r="Q8" s="1">
-        <v>12.862880</v>
+        <v>12.862880000000001</v>
       </c>
       <c r="R8" s="1">
-        <v>1315.110000</v>
+        <v>1315.11</v>
       </c>
       <c r="S8" s="1">
-        <v>-178.740000</v>
+        <v>-178.74</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>46316.894886</v>
+        <v>46316.894886000002</v>
       </c>
       <c r="V8" s="1">
-        <v>12.865804</v>
+        <v>12.865804000000001</v>
       </c>
       <c r="W8" s="1">
-        <v>1329.440000</v>
+        <v>1329.44</v>
       </c>
       <c r="X8" s="1">
-        <v>-167.674000</v>
+        <v>-167.67400000000001</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>46327.318312</v>
+        <v>46327.318312000003</v>
       </c>
       <c r="AA8" s="1">
-        <v>12.868700</v>
+        <v>12.8687</v>
       </c>
       <c r="AB8" s="1">
-        <v>1347.770000</v>
+        <v>1347.77</v>
       </c>
       <c r="AC8" s="1">
-        <v>-167.380000</v>
+        <v>-167.38</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>46337.930186</v>
+        <v>46337.930185999998</v>
       </c>
       <c r="AF8" s="1">
-        <v>12.871647</v>
+        <v>12.871646999999999</v>
       </c>
       <c r="AG8" s="1">
-        <v>1361.220000</v>
+        <v>1361.22</v>
       </c>
       <c r="AH8" s="1">
-        <v>-177.778000</v>
+        <v>-177.77799999999999</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>46348.658652</v>
+        <v>46348.658651999998</v>
       </c>
       <c r="AK8" s="1">
         <v>12.874627</v>
       </c>
       <c r="AL8" s="1">
-        <v>1382.400000</v>
+        <v>1382.4</v>
       </c>
       <c r="AM8" s="1">
-        <v>-208.114000</v>
+        <v>-208.114</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>46359.359872</v>
+        <v>46359.359872000001</v>
       </c>
       <c r="AP8" s="1">
-        <v>12.877600</v>
+        <v>12.877599999999999</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1404.320000</v>
+        <v>1404.32</v>
       </c>
       <c r="AR8" s="1">
-        <v>-252.185000</v>
+        <v>-252.185</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>46370.007985</v>
+        <v>46370.007984999997</v>
       </c>
       <c r="AU8" s="1">
-        <v>12.880558</v>
+        <v>12.880558000000001</v>
       </c>
       <c r="AV8" s="1">
-        <v>1429.010000</v>
+        <v>1429.01</v>
       </c>
       <c r="AW8" s="1">
-        <v>-312.228000</v>
+        <v>-312.22800000000001</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>46381.036497</v>
+        <v>46381.036497000001</v>
       </c>
       <c r="AZ8" s="1">
         <v>12.883621</v>
       </c>
       <c r="BA8" s="1">
-        <v>1448.420000</v>
+        <v>1448.42</v>
       </c>
       <c r="BB8" s="1">
-        <v>-364.319000</v>
+        <v>-364.31900000000002</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>46391.673700</v>
+        <v>46391.673699999999</v>
       </c>
       <c r="BE8" s="1">
         <v>12.886576</v>
       </c>
       <c r="BF8" s="1">
-        <v>1533.840000</v>
+        <v>1533.84</v>
       </c>
       <c r="BG8" s="1">
-        <v>-612.534000</v>
+        <v>-612.53399999999999</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>46402.851570</v>
+        <v>46402.851569999999</v>
       </c>
       <c r="BJ8" s="1">
         <v>12.889681</v>
       </c>
       <c r="BK8" s="1">
-        <v>1688.160000</v>
+        <v>1688.16</v>
       </c>
       <c r="BL8" s="1">
-        <v>-1057.230000</v>
+        <v>-1057.23</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>46414.133073</v>
+        <v>46414.133072999997</v>
       </c>
       <c r="BO8" s="1">
-        <v>12.892815</v>
+        <v>12.892815000000001</v>
       </c>
       <c r="BP8" s="1">
-        <v>1982.420000</v>
+        <v>1982.42</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-1827.790000</v>
+        <v>-1827.79</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>46424.633880</v>
+        <v>46424.633880000001</v>
       </c>
       <c r="BT8" s="1">
-        <v>12.895732</v>
+        <v>12.895732000000001</v>
       </c>
       <c r="BU8" s="1">
-        <v>2368.990000</v>
+        <v>2368.9899999999998</v>
       </c>
       <c r="BV8" s="1">
-        <v>-2714.650000</v>
+        <v>-2714.65</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>46435.799785</v>
+        <v>46435.799785000003</v>
       </c>
       <c r="BY8" s="1">
         <v>12.898833</v>
       </c>
       <c r="BZ8" s="1">
-        <v>2852.560000</v>
+        <v>2852.56</v>
       </c>
       <c r="CA8" s="1">
-        <v>-3688.390000</v>
+        <v>-3688.39</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>46447.685914</v>
+        <v>46447.685914000002</v>
       </c>
       <c r="CD8" s="1">
-        <v>12.902135</v>
+        <v>12.902134999999999</v>
       </c>
       <c r="CE8" s="1">
-        <v>4267.400000</v>
+        <v>4267.3999999999996</v>
       </c>
       <c r="CF8" s="1">
-        <v>-6039.550000</v>
+        <v>-6039.55</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>46275.358431</v>
+        <v>46275.358431000001</v>
       </c>
       <c r="B9" s="1">
-        <v>12.854266</v>
+        <v>12.854266000000001</v>
       </c>
       <c r="C9" s="1">
-        <v>1245.910000</v>
+        <v>1245.9100000000001</v>
       </c>
       <c r="D9" s="1">
-        <v>-280.478000</v>
+        <v>-280.47800000000001</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>46285.761968</v>
+        <v>46285.761967999999</v>
       </c>
       <c r="G9" s="1">
         <v>12.857156</v>
       </c>
       <c r="H9" s="1">
-        <v>1267.310000</v>
+        <v>1267.31</v>
       </c>
       <c r="I9" s="1">
-        <v>-245.441000</v>
+        <v>-245.441</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>46296.227555</v>
+        <v>46296.227554999998</v>
       </c>
       <c r="L9" s="1">
         <v>12.860063</v>
       </c>
       <c r="M9" s="1">
-        <v>1302.430000</v>
+        <v>1302.43</v>
       </c>
       <c r="N9" s="1">
-        <v>-193.774000</v>
+        <v>-193.774</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>46306.716949</v>
+        <v>46306.716949000001</v>
       </c>
       <c r="Q9" s="1">
-        <v>12.862977</v>
+        <v>12.862977000000001</v>
       </c>
       <c r="R9" s="1">
-        <v>1315.070000</v>
+        <v>1315.07</v>
       </c>
       <c r="S9" s="1">
-        <v>-178.787000</v>
+        <v>-178.78700000000001</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>46317.321423</v>
+        <v>46317.321423000001</v>
       </c>
       <c r="V9" s="1">
         <v>12.865923</v>
       </c>
       <c r="W9" s="1">
-        <v>1329.130000</v>
+        <v>1329.13</v>
       </c>
       <c r="X9" s="1">
-        <v>-167.807000</v>
+        <v>-167.80699999999999</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>46327.732439</v>
+        <v>46327.732438999999</v>
       </c>
       <c r="AA9" s="1">
         <v>12.868815</v>
       </c>
       <c r="AB9" s="1">
-        <v>1347.850000</v>
+        <v>1347.85</v>
       </c>
       <c r="AC9" s="1">
-        <v>-167.550000</v>
+        <v>-167.55</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>46338.210426</v>
+        <v>46338.210425999998</v>
       </c>
       <c r="AF9" s="1">
         <v>12.871725</v>
       </c>
       <c r="AG9" s="1">
-        <v>1361.360000</v>
+        <v>1361.36</v>
       </c>
       <c r="AH9" s="1">
-        <v>-177.777000</v>
+        <v>-177.77699999999999</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>46349.008827</v>
+        <v>46349.008826999998</v>
       </c>
       <c r="AK9" s="1">
         <v>12.874725</v>
       </c>
       <c r="AL9" s="1">
-        <v>1382.400000</v>
+        <v>1382.4</v>
       </c>
       <c r="AM9" s="1">
-        <v>-208.141000</v>
+        <v>-208.14099999999999</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>46359.721423</v>
+        <v>46359.721423000003</v>
       </c>
       <c r="AP9" s="1">
-        <v>12.877700</v>
+        <v>12.877700000000001</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1404.340000</v>
+        <v>1404.34</v>
       </c>
       <c r="AR9" s="1">
-        <v>-252.158000</v>
+        <v>-252.15799999999999</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>46370.373535</v>
+        <v>46370.373534999999</v>
       </c>
       <c r="AU9" s="1">
         <v>12.880659</v>
       </c>
       <c r="AV9" s="1">
-        <v>1429.030000</v>
+        <v>1429.03</v>
       </c>
       <c r="AW9" s="1">
-        <v>-312.200000</v>
+        <v>-312.2</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
         <v>46381.752752</v>
       </c>
       <c r="AZ9" s="1">
-        <v>12.883820</v>
+        <v>12.88382</v>
       </c>
       <c r="BA9" s="1">
-        <v>1448.400000</v>
+        <v>1448.4</v>
       </c>
       <c r="BB9" s="1">
-        <v>-364.358000</v>
+        <v>-364.358</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>46392.399378</v>
+        <v>46392.399378000002</v>
       </c>
       <c r="BE9" s="1">
         <v>12.886778</v>
       </c>
       <c r="BF9" s="1">
-        <v>1533.760000</v>
+        <v>1533.76</v>
       </c>
       <c r="BG9" s="1">
-        <v>-612.497000</v>
+        <v>-612.49699999999996</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>46403.226020</v>
+        <v>46403.226020000002</v>
       </c>
       <c r="BJ9" s="1">
         <v>12.889785</v>
       </c>
       <c r="BK9" s="1">
-        <v>1688.140000</v>
+        <v>1688.14</v>
       </c>
       <c r="BL9" s="1">
-        <v>-1057.320000</v>
+        <v>-1057.32</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>46414.550181</v>
+        <v>46414.550180999999</v>
       </c>
       <c r="BO9" s="1">
-        <v>12.892931</v>
+        <v>12.892931000000001</v>
       </c>
       <c r="BP9" s="1">
-        <v>1982.240000</v>
+        <v>1982.24</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-1827.800000</v>
+        <v>-1827.8</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
         <v>46425.066391</v>
@@ -2490,46 +2906,46 @@
         <v>12.895852</v>
       </c>
       <c r="BU9" s="1">
-        <v>2368.420000</v>
+        <v>2368.42</v>
       </c>
       <c r="BV9" s="1">
-        <v>-2714.710000</v>
+        <v>-2714.71</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>46436.530888</v>
+        <v>46436.530888000001</v>
       </c>
       <c r="BY9" s="1">
-        <v>12.899036</v>
+        <v>12.899036000000001</v>
       </c>
       <c r="BZ9" s="1">
-        <v>2852.530000</v>
+        <v>2852.53</v>
       </c>
       <c r="CA9" s="1">
-        <v>-3688.900000</v>
+        <v>-3688.9</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>46447.905145</v>
+        <v>46447.905144999997</v>
       </c>
       <c r="CD9" s="1">
         <v>12.902196</v>
       </c>
       <c r="CE9" s="1">
-        <v>4280.050000</v>
+        <v>4280.05</v>
       </c>
       <c r="CF9" s="1">
-        <v>-6027.260000</v>
+        <v>-6027.26</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
         <v>46275.710046</v>
       </c>
@@ -2537,677 +2953,677 @@
         <v>12.854364</v>
       </c>
       <c r="C10" s="1">
-        <v>1245.870000</v>
+        <v>1245.8699999999999</v>
       </c>
       <c r="D10" s="1">
-        <v>-280.215000</v>
+        <v>-280.21499999999997</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
         <v>46286.107183</v>
       </c>
       <c r="G10" s="1">
-        <v>12.857252</v>
+        <v>12.857252000000001</v>
       </c>
       <c r="H10" s="1">
-        <v>1267.990000</v>
+        <v>1267.99</v>
       </c>
       <c r="I10" s="1">
-        <v>-245.245000</v>
+        <v>-245.245</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>46296.571815</v>
+        <v>46296.571815000003</v>
       </c>
       <c r="L10" s="1">
-        <v>12.860159</v>
+        <v>12.860158999999999</v>
       </c>
       <c r="M10" s="1">
-        <v>1302.470000</v>
+        <v>1302.47</v>
       </c>
       <c r="N10" s="1">
-        <v>-193.917000</v>
+        <v>-193.917</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>46307.140531</v>
+        <v>46307.140530999997</v>
       </c>
       <c r="Q10" s="1">
         <v>12.863095</v>
       </c>
       <c r="R10" s="1">
-        <v>1315.040000</v>
+        <v>1315.04</v>
       </c>
       <c r="S10" s="1">
-        <v>-178.789000</v>
+        <v>-178.78899999999999</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>46317.609094</v>
+        <v>46317.609093999999</v>
       </c>
       <c r="V10" s="1">
-        <v>12.866003</v>
+        <v>12.866002999999999</v>
       </c>
       <c r="W10" s="1">
-        <v>1329.280000</v>
+        <v>1329.28</v>
       </c>
       <c r="X10" s="1">
-        <v>-167.850000</v>
+        <v>-167.85</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>46328.017675</v>
+        <v>46328.017675000003</v>
       </c>
       <c r="AA10" s="1">
-        <v>12.868894</v>
+        <v>12.868893999999999</v>
       </c>
       <c r="AB10" s="1">
-        <v>1347.670000</v>
+        <v>1347.67</v>
       </c>
       <c r="AC10" s="1">
-        <v>-167.498000</v>
+        <v>-167.49799999999999</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
         <v>46338.555643</v>
       </c>
       <c r="AF10" s="1">
-        <v>12.871821</v>
+        <v>12.871821000000001</v>
       </c>
       <c r="AG10" s="1">
-        <v>1361.300000</v>
+        <v>1361.3</v>
       </c>
       <c r="AH10" s="1">
-        <v>-177.831000</v>
+        <v>-177.83099999999999</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>46349.359500</v>
+        <v>46349.359499999999</v>
       </c>
       <c r="AK10" s="1">
         <v>12.874822</v>
       </c>
       <c r="AL10" s="1">
-        <v>1382.390000</v>
+        <v>1382.39</v>
       </c>
       <c r="AM10" s="1">
-        <v>-208.103000</v>
+        <v>-208.10300000000001</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>46360.081022</v>
+        <v>46360.081021999998</v>
       </c>
       <c r="AP10" s="1">
-        <v>12.877800</v>
+        <v>12.877800000000001</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1404.350000</v>
+        <v>1404.35</v>
       </c>
       <c r="AR10" s="1">
-        <v>-252.181000</v>
+        <v>-252.18100000000001</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>46371.102659</v>
+        <v>46371.102658999996</v>
       </c>
       <c r="AU10" s="1">
         <v>12.880862</v>
       </c>
       <c r="AV10" s="1">
-        <v>1429.030000</v>
+        <v>1429.03</v>
       </c>
       <c r="AW10" s="1">
-        <v>-312.212000</v>
+        <v>-312.21199999999999</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>46382.112833</v>
+        <v>46382.112832999999</v>
       </c>
       <c r="AZ10" s="1">
-        <v>12.883920</v>
+        <v>12.88392</v>
       </c>
       <c r="BA10" s="1">
-        <v>1448.400000</v>
+        <v>1448.4</v>
       </c>
       <c r="BB10" s="1">
-        <v>-364.295000</v>
+        <v>-364.29500000000002</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>46392.772875</v>
+        <v>46392.772875000002</v>
       </c>
       <c r="BE10" s="1">
-        <v>12.886881</v>
+        <v>12.886881000000001</v>
       </c>
       <c r="BF10" s="1">
-        <v>1533.790000</v>
+        <v>1533.79</v>
       </c>
       <c r="BG10" s="1">
-        <v>-612.521000</v>
+        <v>-612.52099999999996</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>46403.601988</v>
+        <v>46403.601988000002</v>
       </c>
       <c r="BJ10" s="1">
         <v>12.889889</v>
       </c>
       <c r="BK10" s="1">
-        <v>1688.140000</v>
+        <v>1688.14</v>
       </c>
       <c r="BL10" s="1">
-        <v>-1057.250000</v>
+        <v>-1057.25</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>46415.249541</v>
+        <v>46415.249540999997</v>
       </c>
       <c r="BO10" s="1">
         <v>12.893125</v>
       </c>
       <c r="BP10" s="1">
-        <v>1982.130000</v>
+        <v>1982.13</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-1827.750000</v>
+        <v>-1827.75</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>46425.803911</v>
+        <v>46425.803911000003</v>
       </c>
       <c r="BT10" s="1">
-        <v>12.896057</v>
+        <v>12.896057000000001</v>
       </c>
       <c r="BU10" s="1">
-        <v>2367.910000</v>
+        <v>2367.91</v>
       </c>
       <c r="BV10" s="1">
-        <v>-2715.180000</v>
+        <v>-2715.18</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>46436.693079</v>
+        <v>46436.693078999997</v>
       </c>
       <c r="BY10" s="1">
-        <v>12.899081</v>
+        <v>12.899081000000001</v>
       </c>
       <c r="BZ10" s="1">
-        <v>2851.880000</v>
+        <v>2851.88</v>
       </c>
       <c r="CA10" s="1">
-        <v>-3688.730000</v>
+        <v>-3688.73</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>46448.424456</v>
+        <v>46448.424456000001</v>
       </c>
       <c r="CD10" s="1">
-        <v>12.902340</v>
+        <v>12.902340000000001</v>
       </c>
       <c r="CE10" s="1">
-        <v>4264.070000</v>
+        <v>4264.07</v>
       </c>
       <c r="CF10" s="1">
-        <v>-6017.990000</v>
+        <v>-6017.99</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>46276.053277</v>
+        <v>46276.053276999999</v>
       </c>
       <c r="B11" s="1">
         <v>12.854459</v>
       </c>
       <c r="C11" s="1">
-        <v>1245.870000</v>
+        <v>1245.8699999999999</v>
       </c>
       <c r="D11" s="1">
-        <v>-280.143000</v>
+        <v>-280.14299999999997</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>46286.539724</v>
+        <v>46286.539724000002</v>
       </c>
       <c r="G11" s="1">
         <v>12.857372</v>
       </c>
       <c r="H11" s="1">
-        <v>1267.840000</v>
+        <v>1267.8399999999999</v>
       </c>
       <c r="I11" s="1">
-        <v>-244.677000</v>
+        <v>-244.67699999999999</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>46297.008256</v>
+        <v>46297.008256000001</v>
       </c>
       <c r="L11" s="1">
-        <v>12.860280</v>
+        <v>12.860279999999999</v>
       </c>
       <c r="M11" s="1">
-        <v>1302.380000</v>
+        <v>1302.3800000000001</v>
       </c>
       <c r="N11" s="1">
-        <v>-193.944000</v>
+        <v>-193.94399999999999</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>46307.413330</v>
+        <v>46307.413330000003</v>
       </c>
       <c r="Q11" s="1">
-        <v>12.863170</v>
+        <v>12.86317</v>
       </c>
       <c r="R11" s="1">
-        <v>1315.090000</v>
+        <v>1315.09</v>
       </c>
       <c r="S11" s="1">
-        <v>-178.744000</v>
+        <v>-178.744</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>46317.953349</v>
+        <v>46317.953349000003</v>
       </c>
       <c r="V11" s="1">
-        <v>12.866098</v>
+        <v>12.866097999999999</v>
       </c>
       <c r="W11" s="1">
-        <v>1329.490000</v>
+        <v>1329.49</v>
       </c>
       <c r="X11" s="1">
-        <v>-167.951000</v>
+        <v>-167.95099999999999</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>46328.367848</v>
+        <v>46328.367848000002</v>
       </c>
       <c r="AA11" s="1">
-        <v>12.868991</v>
+        <v>12.868990999999999</v>
       </c>
       <c r="AB11" s="1">
-        <v>1347.750000</v>
+        <v>1347.75</v>
       </c>
       <c r="AC11" s="1">
-        <v>-167.320000</v>
+        <v>-167.32</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>46338.898873</v>
+        <v>46338.898872999998</v>
       </c>
       <c r="AF11" s="1">
-        <v>12.871916</v>
+        <v>12.871916000000001</v>
       </c>
       <c r="AG11" s="1">
-        <v>1361.180000</v>
+        <v>1361.18</v>
       </c>
       <c r="AH11" s="1">
-        <v>-177.831000</v>
+        <v>-177.83099999999999</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
         <v>46350.055386</v>
       </c>
       <c r="AK11" s="1">
-        <v>12.875015</v>
+        <v>12.875014999999999</v>
       </c>
       <c r="AL11" s="1">
-        <v>1382.410000</v>
+        <v>1382.41</v>
       </c>
       <c r="AM11" s="1">
-        <v>-208.116000</v>
+        <v>-208.11600000000001</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>46360.801226</v>
+        <v>46360.801226000003</v>
       </c>
       <c r="AP11" s="1">
-        <v>12.878000</v>
+        <v>12.878</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1404.330000</v>
+        <v>1404.33</v>
       </c>
       <c r="AR11" s="1">
-        <v>-252.166000</v>
+        <v>-252.166</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>46371.490528</v>
+        <v>46371.490528000002</v>
       </c>
       <c r="AU11" s="1">
-        <v>12.880970</v>
+        <v>12.88097</v>
       </c>
       <c r="AV11" s="1">
-        <v>1429.010000</v>
+        <v>1429.01</v>
       </c>
       <c r="AW11" s="1">
-        <v>-312.217000</v>
+        <v>-312.21699999999998</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
         <v>46382.472447</v>
       </c>
       <c r="AZ11" s="1">
-        <v>12.884020</v>
+        <v>12.88402</v>
       </c>
       <c r="BA11" s="1">
-        <v>1448.400000</v>
+        <v>1448.4</v>
       </c>
       <c r="BB11" s="1">
-        <v>-364.330000</v>
+        <v>-364.33</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>46393.138913</v>
+        <v>46393.138913000003</v>
       </c>
       <c r="BE11" s="1">
-        <v>12.886983</v>
+        <v>12.886983000000001</v>
       </c>
       <c r="BF11" s="1">
-        <v>1533.790000</v>
+        <v>1533.79</v>
       </c>
       <c r="BG11" s="1">
-        <v>-612.489000</v>
+        <v>-612.48900000000003</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>46404.288980</v>
+        <v>46404.288979999998</v>
       </c>
       <c r="BJ11" s="1">
-        <v>12.890080</v>
+        <v>12.890079999999999</v>
       </c>
       <c r="BK11" s="1">
-        <v>1688.090000</v>
+        <v>1688.09</v>
       </c>
       <c r="BL11" s="1">
-        <v>-1057.270000</v>
+        <v>-1057.27</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>46415.366099</v>
+        <v>46415.366098999999</v>
       </c>
       <c r="BO11" s="1">
         <v>12.893157</v>
       </c>
       <c r="BP11" s="1">
-        <v>1982.340000</v>
+        <v>1982.34</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-1827.830000</v>
+        <v>-1827.83</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>46425.939849</v>
+        <v>46425.939849000002</v>
       </c>
       <c r="BT11" s="1">
         <v>12.896094</v>
       </c>
       <c r="BU11" s="1">
-        <v>2367.460000</v>
+        <v>2367.46</v>
       </c>
       <c r="BV11" s="1">
-        <v>-2715.230000</v>
+        <v>-2715.23</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>46437.116695</v>
+        <v>46437.116694999997</v>
       </c>
       <c r="BY11" s="1">
-        <v>12.899199</v>
+        <v>12.899198999999999</v>
       </c>
       <c r="BZ11" s="1">
-        <v>2851.770000</v>
+        <v>2851.77</v>
       </c>
       <c r="CA11" s="1">
-        <v>-3688.170000</v>
+        <v>-3688.17</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>46448.941783</v>
+        <v>46448.941783000002</v>
       </c>
       <c r="CD11" s="1">
-        <v>12.902484</v>
+        <v>12.902483999999999</v>
       </c>
       <c r="CE11" s="1">
-        <v>4258.380000</v>
+        <v>4258.38</v>
       </c>
       <c r="CF11" s="1">
-        <v>-6035.260000</v>
+        <v>-6035.26</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>46276.473418</v>
+        <v>46276.473418000001</v>
       </c>
       <c r="B12" s="1">
         <v>12.854576</v>
       </c>
       <c r="C12" s="1">
-        <v>1246.020000</v>
+        <v>1246.02</v>
       </c>
       <c r="D12" s="1">
-        <v>-280.298000</v>
+        <v>-280.298</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>46286.797656</v>
+        <v>46286.797656000002</v>
       </c>
       <c r="G12" s="1">
-        <v>12.857444</v>
+        <v>12.857443999999999</v>
       </c>
       <c r="H12" s="1">
-        <v>1269.030000</v>
+        <v>1269.03</v>
       </c>
       <c r="I12" s="1">
-        <v>-245.938000</v>
+        <v>-245.93799999999999</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>46297.286513</v>
+        <v>46297.286512999999</v>
       </c>
       <c r="L12" s="1">
         <v>12.860357</v>
       </c>
       <c r="M12" s="1">
-        <v>1302.340000</v>
+        <v>1302.3399999999999</v>
       </c>
       <c r="N12" s="1">
-        <v>-194.135000</v>
+        <v>-194.13499999999999</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>46307.763041</v>
+        <v>46307.763040999998</v>
       </c>
       <c r="Q12" s="1">
         <v>12.863268</v>
       </c>
       <c r="R12" s="1">
-        <v>1315.080000</v>
+        <v>1315.08</v>
       </c>
       <c r="S12" s="1">
-        <v>-178.750000</v>
+        <v>-178.75</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>46318.296083</v>
+        <v>46318.296083000001</v>
       </c>
       <c r="V12" s="1">
-        <v>12.866193</v>
+        <v>12.866193000000001</v>
       </c>
       <c r="W12" s="1">
-        <v>1329.350000</v>
+        <v>1329.35</v>
       </c>
       <c r="X12" s="1">
-        <v>-167.659000</v>
+        <v>-167.65899999999999</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>46328.715045</v>
+        <v>46328.715044999997</v>
       </c>
       <c r="AA12" s="1">
         <v>12.869088</v>
       </c>
       <c r="AB12" s="1">
-        <v>1347.790000</v>
+        <v>1347.79</v>
       </c>
       <c r="AC12" s="1">
-        <v>-167.342000</v>
+        <v>-167.34200000000001</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>46339.585832</v>
+        <v>46339.585831999997</v>
       </c>
       <c r="AF12" s="1">
         <v>12.872107</v>
       </c>
       <c r="AG12" s="1">
-        <v>1361.240000</v>
+        <v>1361.24</v>
       </c>
       <c r="AH12" s="1">
-        <v>-177.843000</v>
+        <v>-177.84299999999999</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>46350.406059</v>
+        <v>46350.406059000001</v>
       </c>
       <c r="AK12" s="1">
-        <v>12.875113</v>
+        <v>12.875113000000001</v>
       </c>
       <c r="AL12" s="1">
-        <v>1382.400000</v>
+        <v>1382.4</v>
       </c>
       <c r="AM12" s="1">
-        <v>-208.146000</v>
+        <v>-208.14599999999999</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>46361.158864</v>
+        <v>46361.158863999997</v>
       </c>
       <c r="AP12" s="1">
-        <v>12.878100</v>
+        <v>12.8781</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1404.320000</v>
+        <v>1404.32</v>
       </c>
       <c r="AR12" s="1">
-        <v>-252.165000</v>
+        <v>-252.16499999999999</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>46371.851582</v>
+        <v>46371.851582000003</v>
       </c>
       <c r="AU12" s="1">
-        <v>12.881070</v>
+        <v>12.881069999999999</v>
       </c>
       <c r="AV12" s="1">
-        <v>1429.020000</v>
+        <v>1429.02</v>
       </c>
       <c r="AW12" s="1">
-        <v>-312.210000</v>
+        <v>-312.20999999999998</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>46383.139038</v>
+        <v>46383.139038000001</v>
       </c>
       <c r="AZ12" s="1">
         <v>12.884205</v>
       </c>
       <c r="BA12" s="1">
-        <v>1448.390000</v>
+        <v>1448.39</v>
       </c>
       <c r="BB12" s="1">
-        <v>-364.303000</v>
+        <v>-364.303</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
         <v>46393.820881</v>
@@ -3216,91 +3632,91 @@
         <v>12.887172</v>
       </c>
       <c r="BF12" s="1">
-        <v>1533.820000</v>
+        <v>1533.82</v>
       </c>
       <c r="BG12" s="1">
-        <v>-612.466000</v>
+        <v>-612.46600000000001</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>46404.727410</v>
+        <v>46404.72741</v>
       </c>
       <c r="BJ12" s="1">
         <v>12.890202</v>
       </c>
       <c r="BK12" s="1">
-        <v>1688.110000</v>
+        <v>1688.11</v>
       </c>
       <c r="BL12" s="1">
-        <v>-1057.270000</v>
+        <v>-1057.27</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>46415.789188</v>
+        <v>46415.789188000002</v>
       </c>
       <c r="BO12" s="1">
-        <v>12.893275</v>
+        <v>12.893274999999999</v>
       </c>
       <c r="BP12" s="1">
-        <v>1982.250000</v>
+        <v>1982.25</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-1827.700000</v>
+        <v>-1827.7</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>46426.350503</v>
+        <v>46426.350503000001</v>
       </c>
       <c r="BT12" s="1">
         <v>12.896208</v>
       </c>
       <c r="BU12" s="1">
-        <v>2366.920000</v>
+        <v>2366.92</v>
       </c>
       <c r="BV12" s="1">
-        <v>-2715.690000</v>
+        <v>-2715.69</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>46437.563594</v>
+        <v>46437.563593999999</v>
       </c>
       <c r="BY12" s="1">
-        <v>12.899323</v>
+        <v>12.899323000000001</v>
       </c>
       <c r="BZ12" s="1">
-        <v>2852.710000</v>
+        <v>2852.71</v>
       </c>
       <c r="CA12" s="1">
-        <v>-3688.010000</v>
+        <v>-3688.01</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>46449.459619</v>
+        <v>46449.459619000001</v>
       </c>
       <c r="CD12" s="1">
         <v>12.902628</v>
       </c>
       <c r="CE12" s="1">
-        <v>4274.470000</v>
+        <v>4274.47</v>
       </c>
       <c r="CF12" s="1">
-        <v>-6038.040000</v>
+        <v>-6038.04</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
         <v>46276.748667</v>
       </c>
@@ -3308,223 +3724,223 @@
         <v>12.854652</v>
       </c>
       <c r="C13" s="1">
-        <v>1245.830000</v>
+        <v>1245.83</v>
       </c>
       <c r="D13" s="1">
-        <v>-280.645000</v>
+        <v>-280.64499999999998</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>46287.139864</v>
+        <v>46287.139863999997</v>
       </c>
       <c r="G13" s="1">
-        <v>12.857539</v>
+        <v>12.857538999999999</v>
       </c>
       <c r="H13" s="1">
-        <v>1267.130000</v>
+        <v>1267.1300000000001</v>
       </c>
       <c r="I13" s="1">
-        <v>-246.427000</v>
+        <v>-246.42699999999999</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
         <v>46297.633252</v>
       </c>
       <c r="L13" s="1">
-        <v>12.860454</v>
+        <v>12.860454000000001</v>
       </c>
       <c r="M13" s="1">
-        <v>1302.370000</v>
+        <v>1302.3699999999999</v>
       </c>
       <c r="N13" s="1">
-        <v>-193.729000</v>
+        <v>-193.72900000000001</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>46308.103265</v>
+        <v>46308.103264999998</v>
       </c>
       <c r="Q13" s="1">
         <v>12.863362</v>
       </c>
       <c r="R13" s="1">
-        <v>1315.100000</v>
+        <v>1315.1</v>
       </c>
       <c r="S13" s="1">
-        <v>-178.825000</v>
+        <v>-178.82499999999999</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>46318.984004</v>
+        <v>46318.984003999998</v>
       </c>
       <c r="V13" s="1">
         <v>12.866384</v>
       </c>
       <c r="W13" s="1">
-        <v>1329.190000</v>
+        <v>1329.19</v>
       </c>
       <c r="X13" s="1">
-        <v>-167.582000</v>
+        <v>-167.58199999999999</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>46329.412389</v>
+        <v>46329.412388999997</v>
       </c>
       <c r="AA13" s="1">
-        <v>12.869281</v>
+        <v>12.869281000000001</v>
       </c>
       <c r="AB13" s="1">
-        <v>1347.850000</v>
+        <v>1347.85</v>
       </c>
       <c r="AC13" s="1">
-        <v>-167.305000</v>
+        <v>-167.30500000000001</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>46339.927577</v>
+        <v>46339.927577000002</v>
       </c>
       <c r="AF13" s="1">
         <v>12.872202</v>
       </c>
       <c r="AG13" s="1">
-        <v>1361.250000</v>
+        <v>1361.25</v>
       </c>
       <c r="AH13" s="1">
-        <v>-177.801000</v>
+        <v>-177.80099999999999</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>46350.758258</v>
+        <v>46350.758258000002</v>
       </c>
       <c r="AK13" s="1">
         <v>12.875211</v>
       </c>
       <c r="AL13" s="1">
-        <v>1382.390000</v>
+        <v>1382.39</v>
       </c>
       <c r="AM13" s="1">
-        <v>-208.144000</v>
+        <v>-208.14400000000001</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>46361.521404</v>
+        <v>46361.521403999999</v>
       </c>
       <c r="AP13" s="1">
-        <v>12.878200</v>
+        <v>12.8782</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1404.310000</v>
+        <v>1404.31</v>
       </c>
       <c r="AR13" s="1">
-        <v>-252.162000</v>
+        <v>-252.16200000000001</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>46372.528159</v>
+        <v>46372.528159000001</v>
       </c>
       <c r="AU13" s="1">
-        <v>12.881258</v>
+        <v>12.881258000000001</v>
       </c>
       <c r="AV13" s="1">
-        <v>1429.010000</v>
+        <v>1429.01</v>
       </c>
       <c r="AW13" s="1">
-        <v>-312.197000</v>
+        <v>-312.197</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>46383.581471</v>
+        <v>46383.581470999998</v>
       </c>
       <c r="AZ13" s="1">
         <v>12.884328</v>
       </c>
       <c r="BA13" s="1">
-        <v>1448.350000</v>
+        <v>1448.35</v>
       </c>
       <c r="BB13" s="1">
-        <v>-364.318000</v>
+        <v>-364.31799999999998</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>46394.256368</v>
+        <v>46394.256368000002</v>
       </c>
       <c r="BE13" s="1">
         <v>12.887293</v>
       </c>
       <c r="BF13" s="1">
-        <v>1533.770000</v>
+        <v>1533.77</v>
       </c>
       <c r="BG13" s="1">
-        <v>-612.492000</v>
+        <v>-612.49199999999996</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>46405.102417</v>
+        <v>46405.102417000002</v>
       </c>
       <c r="BJ13" s="1">
-        <v>12.890306</v>
+        <v>12.890306000000001</v>
       </c>
       <c r="BK13" s="1">
-        <v>1688.170000</v>
+        <v>1688.17</v>
       </c>
       <c r="BL13" s="1">
-        <v>-1057.210000</v>
+        <v>-1057.21</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>46416.186980</v>
+        <v>46416.186979999999</v>
       </c>
       <c r="BO13" s="1">
         <v>12.893385</v>
       </c>
       <c r="BP13" s="1">
-        <v>1982.270000</v>
+        <v>1982.27</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-1827.740000</v>
+        <v>-1827.74</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>46426.780037</v>
+        <v>46426.780036999997</v>
       </c>
       <c r="BT13" s="1">
         <v>12.896328</v>
       </c>
       <c r="BU13" s="1">
-        <v>2367.160000</v>
+        <v>2367.16</v>
       </c>
       <c r="BV13" s="1">
-        <v>-2716.080000</v>
+        <v>-2716.08</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
         <v>46437.993875</v>
@@ -3533,452 +3949,452 @@
         <v>12.899443</v>
       </c>
       <c r="BZ13" s="1">
-        <v>2852.040000</v>
+        <v>2852.04</v>
       </c>
       <c r="CA13" s="1">
-        <v>-3687.490000</v>
+        <v>-3687.49</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>46449.976133</v>
+        <v>46449.976132999996</v>
       </c>
       <c r="CD13" s="1">
         <v>12.902771</v>
       </c>
       <c r="CE13" s="1">
-        <v>4275.920000</v>
+        <v>4275.92</v>
       </c>
       <c r="CF13" s="1">
-        <v>-6023.000000</v>
+        <v>-6023</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>46277.090908</v>
+        <v>46277.090907999998</v>
       </c>
       <c r="B14" s="1">
         <v>12.854747</v>
       </c>
       <c r="C14" s="1">
-        <v>1245.740000</v>
+        <v>1245.74</v>
       </c>
       <c r="D14" s="1">
-        <v>-280.371000</v>
+        <v>-280.37099999999998</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
         <v>46287.483086</v>
       </c>
       <c r="G14" s="1">
-        <v>12.857634</v>
+        <v>12.857633999999999</v>
       </c>
       <c r="H14" s="1">
-        <v>1268.070000</v>
+        <v>1268.07</v>
       </c>
       <c r="I14" s="1">
-        <v>-244.812000</v>
+        <v>-244.81200000000001</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>46298.325135</v>
+        <v>46298.325134999999</v>
       </c>
       <c r="L14" s="1">
-        <v>12.860646</v>
+        <v>12.860645999999999</v>
       </c>
       <c r="M14" s="1">
-        <v>1302.450000</v>
+        <v>1302.45</v>
       </c>
       <c r="N14" s="1">
-        <v>-194.237000</v>
+        <v>-194.23699999999999</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>46308.812081</v>
+        <v>46308.812080999996</v>
       </c>
       <c r="Q14" s="1">
         <v>12.863559</v>
       </c>
       <c r="R14" s="1">
-        <v>1315.170000</v>
+        <v>1315.17</v>
       </c>
       <c r="S14" s="1">
-        <v>-178.915000</v>
+        <v>-178.91499999999999</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>46319.328227</v>
+        <v>46319.328226999998</v>
       </c>
       <c r="V14" s="1">
-        <v>12.866480</v>
+        <v>12.866479999999999</v>
       </c>
       <c r="W14" s="1">
-        <v>1329.450000</v>
+        <v>1329.45</v>
       </c>
       <c r="X14" s="1">
-        <v>-167.691000</v>
+        <v>-167.691</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>46329.762565</v>
+        <v>46329.762564999997</v>
       </c>
       <c r="AA14" s="1">
-        <v>12.869378</v>
+        <v>12.869377999999999</v>
       </c>
       <c r="AB14" s="1">
-        <v>1347.710000</v>
+        <v>1347.71</v>
       </c>
       <c r="AC14" s="1">
-        <v>-167.267000</v>
+        <v>-167.267</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>46340.272791</v>
+        <v>46340.272791000003</v>
       </c>
       <c r="AF14" s="1">
-        <v>12.872298</v>
+        <v>12.872298000000001</v>
       </c>
       <c r="AG14" s="1">
-        <v>1361.230000</v>
+        <v>1361.23</v>
       </c>
       <c r="AH14" s="1">
-        <v>-177.864000</v>
+        <v>-177.864</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>46351.420376</v>
+        <v>46351.420376000002</v>
       </c>
       <c r="AK14" s="1">
-        <v>12.875395</v>
+        <v>12.875394999999999</v>
       </c>
       <c r="AL14" s="1">
-        <v>1382.390000</v>
+        <v>1382.39</v>
       </c>
       <c r="AM14" s="1">
-        <v>-208.105000</v>
+        <v>-208.10499999999999</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>46362.192026</v>
+        <v>46362.192025999997</v>
       </c>
       <c r="AP14" s="1">
         <v>12.878387</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1404.320000</v>
+        <v>1404.32</v>
       </c>
       <c r="AR14" s="1">
-        <v>-252.146000</v>
+        <v>-252.14599999999999</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>46372.972541</v>
+        <v>46372.972541000003</v>
       </c>
       <c r="AU14" s="1">
-        <v>12.881381</v>
+        <v>12.881380999999999</v>
       </c>
       <c r="AV14" s="1">
-        <v>1429.010000</v>
+        <v>1429.01</v>
       </c>
       <c r="AW14" s="1">
-        <v>-312.183000</v>
+        <v>-312.18299999999999</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>46383.940575</v>
+        <v>46383.940575000001</v>
       </c>
       <c r="AZ14" s="1">
         <v>12.884428</v>
       </c>
       <c r="BA14" s="1">
-        <v>1448.390000</v>
+        <v>1448.39</v>
       </c>
       <c r="BB14" s="1">
-        <v>-364.322000</v>
+        <v>-364.322</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>46394.615967</v>
+        <v>46394.615966999998</v>
       </c>
       <c r="BE14" s="1">
-        <v>12.887393</v>
+        <v>12.887392999999999</v>
       </c>
       <c r="BF14" s="1">
-        <v>1533.800000</v>
+        <v>1533.8</v>
       </c>
       <c r="BG14" s="1">
-        <v>-612.478000</v>
+        <v>-612.47799999999995</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>46405.480109</v>
+        <v>46405.480108999996</v>
       </c>
       <c r="BJ14" s="1">
         <v>12.890411</v>
       </c>
       <c r="BK14" s="1">
-        <v>1688.160000</v>
+        <v>1688.16</v>
       </c>
       <c r="BL14" s="1">
-        <v>-1057.290000</v>
+        <v>-1057.29</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>46416.611554</v>
+        <v>46416.611554000003</v>
       </c>
       <c r="BO14" s="1">
-        <v>12.893503</v>
+        <v>12.893503000000001</v>
       </c>
       <c r="BP14" s="1">
-        <v>1982.230000</v>
+        <v>1982.23</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-1827.720000</v>
+        <v>-1827.72</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>46427.199653</v>
+        <v>46427.199653000003</v>
       </c>
       <c r="BT14" s="1">
-        <v>12.896444</v>
+        <v>12.896444000000001</v>
       </c>
       <c r="BU14" s="1">
-        <v>2366.530000</v>
+        <v>2366.5300000000002</v>
       </c>
       <c r="BV14" s="1">
-        <v>-2716.470000</v>
+        <v>-2716.47</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>46438.418165</v>
+        <v>46438.418165000003</v>
       </c>
       <c r="BY14" s="1">
         <v>12.899561</v>
       </c>
       <c r="BZ14" s="1">
-        <v>2852.080000</v>
+        <v>2852.08</v>
       </c>
       <c r="CA14" s="1">
-        <v>-3688.470000</v>
+        <v>-3688.47</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>46450.492774</v>
+        <v>46450.492773999998</v>
       </c>
       <c r="CD14" s="1">
         <v>12.902915</v>
       </c>
       <c r="CE14" s="1">
-        <v>4277.440000</v>
+        <v>4277.4399999999996</v>
       </c>
       <c r="CF14" s="1">
-        <v>-6025.930000</v>
+        <v>-6025.93</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>46277.430202</v>
+        <v>46277.430202000003</v>
       </c>
       <c r="B15" s="1">
         <v>12.854842</v>
       </c>
       <c r="C15" s="1">
-        <v>1245.790000</v>
+        <v>1245.79</v>
       </c>
       <c r="D15" s="1">
-        <v>-280.176000</v>
+        <v>-280.17599999999999</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>46288.175500</v>
+        <v>46288.175499999998</v>
       </c>
       <c r="G15" s="1">
         <v>12.857827</v>
       </c>
       <c r="H15" s="1">
-        <v>1267.800000</v>
+        <v>1267.8</v>
       </c>
       <c r="I15" s="1">
-        <v>-244.989000</v>
+        <v>-244.989</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>46298.669391</v>
+        <v>46298.669391000003</v>
       </c>
       <c r="L15" s="1">
-        <v>12.860741</v>
+        <v>12.860741000000001</v>
       </c>
       <c r="M15" s="1">
-        <v>1302.340000</v>
+        <v>1302.3399999999999</v>
       </c>
       <c r="N15" s="1">
-        <v>-194.047000</v>
+        <v>-194.047</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>46309.157266</v>
+        <v>46309.157266000002</v>
       </c>
       <c r="Q15" s="1">
         <v>12.863655</v>
       </c>
       <c r="R15" s="1">
-        <v>1315.080000</v>
+        <v>1315.08</v>
       </c>
       <c r="S15" s="1">
-        <v>-178.987000</v>
+        <v>-178.98699999999999</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>46319.671954</v>
+        <v>46319.671953999998</v>
       </c>
       <c r="V15" s="1">
         <v>12.866576</v>
       </c>
       <c r="W15" s="1">
-        <v>1329.320000</v>
+        <v>1329.32</v>
       </c>
       <c r="X15" s="1">
-        <v>-167.757000</v>
+        <v>-167.75700000000001</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>46330.109270</v>
+        <v>46330.109270000001</v>
       </c>
       <c r="AA15" s="1">
         <v>12.869475</v>
       </c>
       <c r="AB15" s="1">
-        <v>1347.840000</v>
+        <v>1347.84</v>
       </c>
       <c r="AC15" s="1">
-        <v>-167.337000</v>
+        <v>-167.33699999999999</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>46340.927049</v>
+        <v>46340.927048999998</v>
       </c>
       <c r="AF15" s="1">
-        <v>12.872480</v>
+        <v>12.872479999999999</v>
       </c>
       <c r="AG15" s="1">
-        <v>1361.270000</v>
+        <v>1361.27</v>
       </c>
       <c r="AH15" s="1">
-        <v>-177.845000</v>
+        <v>-177.845</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
         <v>46351.800313</v>
       </c>
       <c r="AK15" s="1">
-        <v>12.875500</v>
+        <v>12.875500000000001</v>
       </c>
       <c r="AL15" s="1">
-        <v>1382.390000</v>
+        <v>1382.39</v>
       </c>
       <c r="AM15" s="1">
-        <v>-208.135000</v>
+        <v>-208.13499999999999</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>46362.617292</v>
+        <v>46362.617292000003</v>
       </c>
       <c r="AP15" s="1">
-        <v>12.878505</v>
+        <v>12.878505000000001</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1404.320000</v>
+        <v>1404.32</v>
       </c>
       <c r="AR15" s="1">
-        <v>-252.165000</v>
+        <v>-252.16499999999999</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>46373.335116</v>
+        <v>46373.335116000002</v>
       </c>
       <c r="AU15" s="1">
         <v>12.881482</v>
       </c>
       <c r="AV15" s="1">
-        <v>1429.030000</v>
+        <v>1429.03</v>
       </c>
       <c r="AW15" s="1">
-        <v>-312.238000</v>
+        <v>-312.238</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>46384.299182</v>
+        <v>46384.299182000002</v>
       </c>
       <c r="AZ15" s="1">
         <v>12.884528</v>
       </c>
       <c r="BA15" s="1">
-        <v>1448.380000</v>
+        <v>1448.38</v>
       </c>
       <c r="BB15" s="1">
-        <v>-364.326000</v>
+        <v>-364.32600000000002</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
         <v>46394.977582</v>
@@ -3987,739 +4403,739 @@
         <v>12.887494</v>
       </c>
       <c r="BF15" s="1">
-        <v>1533.800000</v>
+        <v>1533.8</v>
       </c>
       <c r="BG15" s="1">
-        <v>-612.509000</v>
+        <v>-612.50900000000001</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>46405.897473</v>
+        <v>46405.897472999997</v>
       </c>
       <c r="BJ15" s="1">
-        <v>12.890527</v>
+        <v>12.890527000000001</v>
       </c>
       <c r="BK15" s="1">
-        <v>1688.160000</v>
+        <v>1688.16</v>
       </c>
       <c r="BL15" s="1">
-        <v>-1057.240000</v>
+        <v>-1057.24</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>46417.005378</v>
+        <v>46417.005378000002</v>
       </c>
       <c r="BO15" s="1">
         <v>12.893613</v>
       </c>
       <c r="BP15" s="1">
-        <v>1982.180000</v>
+        <v>1982.18</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-1827.660000</v>
+        <v>-1827.66</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>46427.606407</v>
+        <v>46427.606406999999</v>
       </c>
       <c r="BT15" s="1">
         <v>12.896557</v>
       </c>
       <c r="BU15" s="1">
-        <v>2366.570000</v>
+        <v>2366.5700000000002</v>
       </c>
       <c r="BV15" s="1">
-        <v>-2717.240000</v>
+        <v>-2717.24</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>46438.836306</v>
+        <v>46438.836305999997</v>
       </c>
       <c r="BY15" s="1">
-        <v>12.899677</v>
+        <v>12.899677000000001</v>
       </c>
       <c r="BZ15" s="1">
-        <v>2852.440000</v>
+        <v>2852.44</v>
       </c>
       <c r="CA15" s="1">
-        <v>-3687.860000</v>
+        <v>-3687.86</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>46451.047830</v>
+        <v>46451.047830000003</v>
       </c>
       <c r="CD15" s="1">
         <v>12.903069</v>
       </c>
       <c r="CE15" s="1">
-        <v>4276.640000</v>
+        <v>4276.6400000000003</v>
       </c>
       <c r="CF15" s="1">
-        <v>-6036.520000</v>
+        <v>-6036.52</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>46278.116633</v>
+        <v>46278.116632999998</v>
       </c>
       <c r="B16" s="1">
         <v>12.855032</v>
       </c>
       <c r="C16" s="1">
-        <v>1245.930000</v>
+        <v>1245.93</v>
       </c>
       <c r="D16" s="1">
-        <v>-280.008000</v>
+        <v>-280.00799999999998</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>46288.518769</v>
+        <v>46288.518769000002</v>
       </c>
       <c r="G16" s="1">
         <v>12.857922</v>
       </c>
       <c r="H16" s="1">
-        <v>1267.330000</v>
+        <v>1267.33</v>
       </c>
       <c r="I16" s="1">
-        <v>-245.854000</v>
+        <v>-245.85400000000001</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>46299.015071</v>
+        <v>46299.015071000002</v>
       </c>
       <c r="L16" s="1">
-        <v>12.860838</v>
+        <v>12.860837999999999</v>
       </c>
       <c r="M16" s="1">
-        <v>1302.490000</v>
+        <v>1302.49</v>
       </c>
       <c r="N16" s="1">
-        <v>-193.793000</v>
+        <v>-193.79300000000001</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>46309.506944</v>
+        <v>46309.506944000001</v>
       </c>
       <c r="Q16" s="1">
         <v>12.863752</v>
       </c>
       <c r="R16" s="1">
-        <v>1315.020000</v>
+        <v>1315.02</v>
       </c>
       <c r="S16" s="1">
-        <v>-179.006000</v>
+        <v>-179.006</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>46320.323735</v>
+        <v>46320.323734999998</v>
       </c>
       <c r="V16" s="1">
         <v>12.866757</v>
       </c>
       <c r="W16" s="1">
-        <v>1329.320000</v>
+        <v>1329.32</v>
       </c>
       <c r="X16" s="1">
-        <v>-167.830000</v>
+        <v>-167.83</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>46330.767461</v>
+        <v>46330.767461000003</v>
       </c>
       <c r="AA16" s="1">
-        <v>12.869658</v>
+        <v>12.869657999999999</v>
       </c>
       <c r="AB16" s="1">
-        <v>1347.730000</v>
+        <v>1347.73</v>
       </c>
       <c r="AC16" s="1">
-        <v>-167.433000</v>
+        <v>-167.43299999999999</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>46341.303479</v>
+        <v>46341.303479000002</v>
       </c>
       <c r="AF16" s="1">
         <v>12.872584</v>
       </c>
       <c r="AG16" s="1">
-        <v>1361.300000</v>
+        <v>1361.3</v>
       </c>
       <c r="AH16" s="1">
-        <v>-177.869000</v>
+        <v>-177.869</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>46352.148539</v>
+        <v>46352.148539000002</v>
       </c>
       <c r="AK16" s="1">
-        <v>12.875597</v>
+        <v>12.875597000000001</v>
       </c>
       <c r="AL16" s="1">
-        <v>1382.390000</v>
+        <v>1382.39</v>
       </c>
       <c r="AM16" s="1">
-        <v>-208.145000</v>
+        <v>-208.14500000000001</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>46362.983114</v>
+        <v>46362.983114000002</v>
       </c>
       <c r="AP16" s="1">
         <v>12.878606</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1404.270000</v>
+        <v>1404.27</v>
       </c>
       <c r="AR16" s="1">
-        <v>-252.156000</v>
+        <v>-252.15600000000001</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>46373.701661</v>
+        <v>46373.701660999999</v>
       </c>
       <c r="AU16" s="1">
         <v>12.881584</v>
       </c>
       <c r="AV16" s="1">
-        <v>1429.040000</v>
+        <v>1429.04</v>
       </c>
       <c r="AW16" s="1">
-        <v>-312.192000</v>
+        <v>-312.19200000000001</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>46384.719790</v>
+        <v>46384.719790000003</v>
       </c>
       <c r="AZ16" s="1">
         <v>12.884644</v>
       </c>
       <c r="BA16" s="1">
-        <v>1448.400000</v>
+        <v>1448.4</v>
       </c>
       <c r="BB16" s="1">
-        <v>-364.316000</v>
+        <v>-364.31599999999997</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>46395.406591</v>
+        <v>46395.406590999999</v>
       </c>
       <c r="BE16" s="1">
         <v>12.887613</v>
       </c>
       <c r="BF16" s="1">
-        <v>1533.780000</v>
+        <v>1533.78</v>
       </c>
       <c r="BG16" s="1">
-        <v>-612.486000</v>
+        <v>-612.48599999999999</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>46406.258561</v>
+        <v>46406.258561000002</v>
       </c>
       <c r="BJ16" s="1">
         <v>12.890627</v>
       </c>
       <c r="BK16" s="1">
-        <v>1688.090000</v>
+        <v>1688.09</v>
       </c>
       <c r="BL16" s="1">
-        <v>-1057.260000</v>
+        <v>-1057.26</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>46417.429953</v>
+        <v>46417.429952999999</v>
       </c>
       <c r="BO16" s="1">
-        <v>12.893731</v>
+        <v>12.893731000000001</v>
       </c>
       <c r="BP16" s="1">
-        <v>1982.090000</v>
+        <v>1982.09</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-1827.600000</v>
+        <v>-1827.6</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>46428.023509</v>
+        <v>46428.023508999999</v>
       </c>
       <c r="BT16" s="1">
         <v>12.896673</v>
       </c>
       <c r="BU16" s="1">
-        <v>2366.450000</v>
+        <v>2366.4499999999998</v>
       </c>
       <c r="BV16" s="1">
-        <v>-2717.540000</v>
+        <v>-2717.54</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>46439.265332</v>
+        <v>46439.265332000003</v>
       </c>
       <c r="BY16" s="1">
         <v>12.899796</v>
       </c>
       <c r="BZ16" s="1">
-        <v>2851.660000</v>
+        <v>2851.66</v>
       </c>
       <c r="CA16" s="1">
-        <v>-3687.970000</v>
+        <v>-3687.97</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>46451.578021</v>
+        <v>46451.578021000001</v>
       </c>
       <c r="CD16" s="1">
         <v>12.903216</v>
       </c>
       <c r="CE16" s="1">
-        <v>4274.700000</v>
+        <v>4274.7</v>
       </c>
       <c r="CF16" s="1">
-        <v>-6021.510000</v>
+        <v>-6021.51</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>46278.458887</v>
+        <v>46278.458887000001</v>
       </c>
       <c r="B17" s="1">
         <v>12.855127</v>
       </c>
       <c r="C17" s="1">
-        <v>1245.880000</v>
+        <v>1245.8800000000001</v>
       </c>
       <c r="D17" s="1">
-        <v>-280.234000</v>
+        <v>-280.23399999999998</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>46288.863452</v>
+        <v>46288.863451999998</v>
       </c>
       <c r="G17" s="1">
         <v>12.858018</v>
       </c>
       <c r="H17" s="1">
-        <v>1267.850000</v>
+        <v>1267.8499999999999</v>
       </c>
       <c r="I17" s="1">
-        <v>-246.188000</v>
+        <v>-246.18799999999999</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>46299.678718</v>
+        <v>46299.678718000003</v>
       </c>
       <c r="L17" s="1">
         <v>12.861022</v>
       </c>
       <c r="M17" s="1">
-        <v>1302.500000</v>
+        <v>1302.5</v>
       </c>
       <c r="N17" s="1">
-        <v>-193.797000</v>
+        <v>-193.797</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>46310.164180</v>
+        <v>46310.16418</v>
       </c>
       <c r="Q17" s="1">
         <v>12.863934</v>
       </c>
       <c r="R17" s="1">
-        <v>1315.020000</v>
+        <v>1315.02</v>
       </c>
       <c r="S17" s="1">
-        <v>-178.869000</v>
+        <v>-178.869</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>46320.702641</v>
+        <v>46320.702641000003</v>
       </c>
       <c r="V17" s="1">
-        <v>12.866862</v>
+        <v>12.866861999999999</v>
       </c>
       <c r="W17" s="1">
-        <v>1329.080000</v>
+        <v>1329.08</v>
       </c>
       <c r="X17" s="1">
-        <v>-167.713000</v>
+        <v>-167.71299999999999</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>46331.157315</v>
+        <v>46331.157314999997</v>
       </c>
       <c r="AA17" s="1">
         <v>12.869766</v>
       </c>
       <c r="AB17" s="1">
-        <v>1347.940000</v>
+        <v>1347.94</v>
       </c>
       <c r="AC17" s="1">
-        <v>-167.394000</v>
+        <v>-167.39400000000001</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>46341.643270</v>
+        <v>46341.64327</v>
       </c>
       <c r="AF17" s="1">
         <v>12.872679</v>
       </c>
       <c r="AG17" s="1">
-        <v>1361.230000</v>
+        <v>1361.23</v>
       </c>
       <c r="AH17" s="1">
-        <v>-177.798000</v>
+        <v>-177.798</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
         <v>46352.497721</v>
       </c>
       <c r="AK17" s="1">
-        <v>12.875694</v>
+        <v>12.875693999999999</v>
       </c>
       <c r="AL17" s="1">
-        <v>1382.380000</v>
+        <v>1382.38</v>
       </c>
       <c r="AM17" s="1">
-        <v>-208.092000</v>
+        <v>-208.09200000000001</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>46363.341721</v>
+        <v>46363.341720999997</v>
       </c>
       <c r="AP17" s="1">
-        <v>12.878706</v>
+        <v>12.878705999999999</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1404.290000</v>
+        <v>1404.29</v>
       </c>
       <c r="AR17" s="1">
-        <v>-252.150000</v>
+        <v>-252.15</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>46374.132843</v>
+        <v>46374.132842999999</v>
       </c>
       <c r="AU17" s="1">
-        <v>12.881704</v>
+        <v>12.881703999999999</v>
       </c>
       <c r="AV17" s="1">
-        <v>1428.980000</v>
+        <v>1428.98</v>
       </c>
       <c r="AW17" s="1">
-        <v>-312.209000</v>
+        <v>-312.209</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>46385.017922</v>
+        <v>46385.017921999999</v>
       </c>
       <c r="AZ17" s="1">
         <v>12.884727</v>
       </c>
       <c r="BA17" s="1">
-        <v>1448.420000</v>
+        <v>1448.42</v>
       </c>
       <c r="BB17" s="1">
-        <v>-364.311000</v>
+        <v>-364.31099999999998</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>46395.699759</v>
+        <v>46395.699759000003</v>
       </c>
       <c r="BE17" s="1">
         <v>12.887694</v>
       </c>
       <c r="BF17" s="1">
-        <v>1533.800000</v>
+        <v>1533.8</v>
       </c>
       <c r="BG17" s="1">
-        <v>-612.499000</v>
+        <v>-612.49900000000002</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>46406.633567</v>
+        <v>46406.633566999997</v>
       </c>
       <c r="BJ17" s="1">
         <v>12.890732</v>
       </c>
       <c r="BK17" s="1">
-        <v>1688.120000</v>
+        <v>1688.12</v>
       </c>
       <c r="BL17" s="1">
-        <v>-1057.160000</v>
+        <v>-1057.1600000000001</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>46417.826258</v>
+        <v>46417.826258000001</v>
       </c>
       <c r="BO17" s="1">
         <v>12.893841</v>
       </c>
       <c r="BP17" s="1">
-        <v>1982.190000</v>
+        <v>1982.19</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-1827.680000</v>
+        <v>-1827.68</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>46428.439187</v>
+        <v>46428.439187000004</v>
       </c>
       <c r="BT17" s="1">
         <v>12.896789</v>
       </c>
       <c r="BU17" s="1">
-        <v>2366.940000</v>
+        <v>2366.94</v>
       </c>
       <c r="BV17" s="1">
-        <v>-2718.060000</v>
+        <v>-2718.06</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
         <v>46439.689908</v>
       </c>
       <c r="BY17" s="1">
-        <v>12.899914</v>
+        <v>12.899914000000001</v>
       </c>
       <c r="BZ17" s="1">
-        <v>2851.200000</v>
+        <v>2851.2</v>
       </c>
       <c r="CA17" s="1">
-        <v>-3687.630000</v>
+        <v>-3687.63</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>46452.097331</v>
+        <v>46452.097330999997</v>
       </c>
       <c r="CD17" s="1">
-        <v>12.903360</v>
+        <v>12.903359999999999</v>
       </c>
       <c r="CE17" s="1">
-        <v>4260.810000</v>
+        <v>4260.8100000000004</v>
       </c>
       <c r="CF17" s="1">
-        <v>-6024.980000</v>
+        <v>-6024.98</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
         <v>46278.800121</v>
       </c>
       <c r="B18" s="1">
-        <v>12.855222</v>
+        <v>12.855221999999999</v>
       </c>
       <c r="C18" s="1">
-        <v>1245.800000</v>
+        <v>1245.8</v>
       </c>
       <c r="D18" s="1">
-        <v>-280.067000</v>
+        <v>-280.06700000000001</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>46289.522635</v>
+        <v>46289.522635000001</v>
       </c>
       <c r="G18" s="1">
-        <v>12.858201</v>
+        <v>12.858200999999999</v>
       </c>
       <c r="H18" s="1">
-        <v>1268.210000</v>
+        <v>1268.21</v>
       </c>
       <c r="I18" s="1">
-        <v>-244.984000</v>
+        <v>-244.98400000000001</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>46300.053724</v>
+        <v>46300.053723999998</v>
       </c>
       <c r="L18" s="1">
-        <v>12.861126</v>
+        <v>12.861126000000001</v>
       </c>
       <c r="M18" s="1">
-        <v>1302.490000</v>
+        <v>1302.49</v>
       </c>
       <c r="N18" s="1">
-        <v>-193.764000</v>
+        <v>-193.76400000000001</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>46310.549559</v>
+        <v>46310.549558999999</v>
       </c>
       <c r="Q18" s="1">
         <v>12.864042</v>
       </c>
       <c r="R18" s="1">
-        <v>1315.070000</v>
+        <v>1315.07</v>
       </c>
       <c r="S18" s="1">
-        <v>-178.900000</v>
+        <v>-178.9</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>46321.045378</v>
+        <v>46321.045378000003</v>
       </c>
       <c r="V18" s="1">
-        <v>12.866957</v>
+        <v>12.866956999999999</v>
       </c>
       <c r="W18" s="1">
-        <v>1329.260000</v>
+        <v>1329.26</v>
       </c>
       <c r="X18" s="1">
-        <v>-167.758000</v>
+        <v>-167.75800000000001</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>46331.535777</v>
+        <v>46331.535776999997</v>
       </c>
       <c r="AA18" s="1">
         <v>12.869871</v>
       </c>
       <c r="AB18" s="1">
-        <v>1347.770000</v>
+        <v>1347.77</v>
       </c>
       <c r="AC18" s="1">
-        <v>-167.365000</v>
+        <v>-167.36500000000001</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
         <v>46341.989446</v>
       </c>
       <c r="AF18" s="1">
-        <v>12.872775</v>
+        <v>12.872775000000001</v>
       </c>
       <c r="AG18" s="1">
-        <v>1361.220000</v>
+        <v>1361.22</v>
       </c>
       <c r="AH18" s="1">
-        <v>-177.762000</v>
+        <v>-177.762</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
         <v>46352.908871</v>
       </c>
       <c r="AK18" s="1">
-        <v>12.875808</v>
+        <v>12.875807999999999</v>
       </c>
       <c r="AL18" s="1">
-        <v>1382.390000</v>
+        <v>1382.39</v>
       </c>
       <c r="AM18" s="1">
-        <v>-208.106000</v>
+        <v>-208.10599999999999</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>46363.769313</v>
+        <v>46363.769312999997</v>
       </c>
       <c r="AP18" s="1">
-        <v>12.878825</v>
+        <v>12.878825000000001</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1404.290000</v>
+        <v>1404.29</v>
       </c>
       <c r="AR18" s="1">
-        <v>-252.145000</v>
+        <v>-252.14500000000001</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
         <v>46374.428795</v>
@@ -4728,88 +5144,88 @@
         <v>12.881786</v>
       </c>
       <c r="AV18" s="1">
-        <v>1429.010000</v>
+        <v>1429.01</v>
       </c>
       <c r="AW18" s="1">
-        <v>-312.201000</v>
+        <v>-312.20100000000002</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>46385.375039</v>
+        <v>46385.375038999999</v>
       </c>
       <c r="AZ18" s="1">
         <v>12.884826</v>
       </c>
       <c r="BA18" s="1">
-        <v>1448.400000</v>
+        <v>1448.4</v>
       </c>
       <c r="BB18" s="1">
-        <v>-364.291000</v>
+        <v>-364.291</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>46396.063293</v>
+        <v>46396.063292999999</v>
       </c>
       <c r="BE18" s="1">
-        <v>12.887795</v>
+        <v>12.887795000000001</v>
       </c>
       <c r="BF18" s="1">
-        <v>1533.770000</v>
+        <v>1533.77</v>
       </c>
       <c r="BG18" s="1">
-        <v>-612.476000</v>
+        <v>-612.476</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>46407.012010</v>
+        <v>46407.012009999999</v>
       </c>
       <c r="BJ18" s="1">
-        <v>12.890837</v>
+        <v>12.890836999999999</v>
       </c>
       <c r="BK18" s="1">
-        <v>1688.150000</v>
+        <v>1688.15</v>
       </c>
       <c r="BL18" s="1">
-        <v>-1057.180000</v>
+        <v>-1057.18</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>46418.244892</v>
+        <v>46418.244892000002</v>
       </c>
       <c r="BO18" s="1">
         <v>12.893957</v>
       </c>
       <c r="BP18" s="1">
-        <v>1982.140000</v>
+        <v>1982.14</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-1827.670000</v>
+        <v>-1827.67</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>46428.875634</v>
+        <v>46428.875634000004</v>
       </c>
       <c r="BT18" s="1">
-        <v>12.896910</v>
+        <v>12.89691</v>
       </c>
       <c r="BU18" s="1">
-        <v>2367.220000</v>
+        <v>2367.2199999999998</v>
       </c>
       <c r="BV18" s="1">
-        <v>-2718.520000</v>
+        <v>-2718.52</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
         <v>46440.128869</v>
@@ -4818,180 +5234,180 @@
         <v>12.900036</v>
       </c>
       <c r="BZ18" s="1">
-        <v>2851.350000</v>
+        <v>2851.35</v>
       </c>
       <c r="CA18" s="1">
-        <v>-3688.130000</v>
+        <v>-3688.13</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>46452.612713</v>
+        <v>46452.612713000002</v>
       </c>
       <c r="CD18" s="1">
         <v>12.903504</v>
       </c>
       <c r="CE18" s="1">
-        <v>4267.110000</v>
+        <v>4267.1099999999997</v>
       </c>
       <c r="CF18" s="1">
-        <v>-6037.710000</v>
+        <v>-6037.71</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>46279.448919</v>
+        <v>46279.448919000002</v>
       </c>
       <c r="B19" s="1">
         <v>12.855402</v>
       </c>
       <c r="C19" s="1">
-        <v>1245.860000</v>
+        <v>1245.8599999999999</v>
       </c>
       <c r="D19" s="1">
-        <v>-280.206000</v>
+        <v>-280.20600000000002</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>46289.899097</v>
+        <v>46289.899097000001</v>
       </c>
       <c r="G19" s="1">
         <v>12.858305</v>
       </c>
       <c r="H19" s="1">
-        <v>1267.890000</v>
+        <v>1267.8900000000001</v>
       </c>
       <c r="I19" s="1">
-        <v>-245.767000</v>
+        <v>-245.767</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>46300.397951</v>
+        <v>46300.397950999999</v>
       </c>
       <c r="L19" s="1">
         <v>12.861222</v>
       </c>
       <c r="M19" s="1">
-        <v>1302.300000</v>
+        <v>1302.3</v>
       </c>
       <c r="N19" s="1">
-        <v>-193.595000</v>
+        <v>-193.595</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>46310.899246</v>
+        <v>46310.899246000001</v>
       </c>
       <c r="Q19" s="1">
         <v>12.864139</v>
       </c>
       <c r="R19" s="1">
-        <v>1315.090000</v>
+        <v>1315.09</v>
       </c>
       <c r="S19" s="1">
-        <v>-178.906000</v>
+        <v>-178.90600000000001</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>46321.395057</v>
+        <v>46321.395057000002</v>
       </c>
       <c r="V19" s="1">
         <v>12.867054</v>
       </c>
       <c r="W19" s="1">
-        <v>1329.290000</v>
+        <v>1329.29</v>
       </c>
       <c r="X19" s="1">
-        <v>-167.757000</v>
+        <v>-167.75700000000001</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>46331.951411</v>
+        <v>46331.951411000002</v>
       </c>
       <c r="AA19" s="1">
         <v>12.869987</v>
       </c>
       <c r="AB19" s="1">
-        <v>1347.720000</v>
+        <v>1347.72</v>
       </c>
       <c r="AC19" s="1">
-        <v>-167.519000</v>
+        <v>-167.51900000000001</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>46342.409060</v>
+        <v>46342.409059999998</v>
       </c>
       <c r="AF19" s="1">
-        <v>12.872891</v>
+        <v>12.872890999999999</v>
       </c>
       <c r="AG19" s="1">
-        <v>1361.240000</v>
+        <v>1361.24</v>
       </c>
       <c r="AH19" s="1">
-        <v>-177.794000</v>
+        <v>-177.79400000000001</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>46353.195095</v>
+        <v>46353.195095000003</v>
       </c>
       <c r="AK19" s="1">
         <v>12.875888</v>
       </c>
       <c r="AL19" s="1">
-        <v>1382.400000</v>
+        <v>1382.4</v>
       </c>
       <c r="AM19" s="1">
-        <v>-208.111000</v>
+        <v>-208.11099999999999</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>46364.086217</v>
+        <v>46364.086216999996</v>
       </c>
       <c r="AP19" s="1">
-        <v>12.878913</v>
+        <v>12.878913000000001</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1404.290000</v>
+        <v>1404.29</v>
       </c>
       <c r="AR19" s="1">
-        <v>-252.111000</v>
+        <v>-252.11099999999999</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>46374.794869</v>
+        <v>46374.794868999998</v>
       </c>
       <c r="AU19" s="1">
-        <v>12.881887</v>
+        <v>12.881887000000001</v>
       </c>
       <c r="AV19" s="1">
-        <v>1429.010000</v>
+        <v>1429.01</v>
       </c>
       <c r="AW19" s="1">
-        <v>-312.199000</v>
+        <v>-312.19900000000001</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
         <v>46385.734139</v>
@@ -5000,28 +5416,28 @@
         <v>12.884926</v>
       </c>
       <c r="BA19" s="1">
-        <v>1448.360000</v>
+        <v>1448.36</v>
       </c>
       <c r="BB19" s="1">
-        <v>-364.302000</v>
+        <v>-364.30200000000002</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>46396.422894</v>
+        <v>46396.422894000003</v>
       </c>
       <c r="BE19" s="1">
         <v>12.887895</v>
       </c>
       <c r="BF19" s="1">
-        <v>1533.790000</v>
+        <v>1533.79</v>
       </c>
       <c r="BG19" s="1">
-        <v>-612.446000</v>
+        <v>-612.44600000000003</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
         <v>46407.785743</v>
@@ -5030,28 +5446,28 @@
         <v>12.891052</v>
       </c>
       <c r="BK19" s="1">
-        <v>1688.090000</v>
+        <v>1688.09</v>
       </c>
       <c r="BL19" s="1">
-        <v>-1057.170000</v>
+        <v>-1057.17</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>46418.640687</v>
+        <v>46418.640686999999</v>
       </c>
       <c r="BO19" s="1">
         <v>12.894067</v>
       </c>
       <c r="BP19" s="1">
-        <v>1982.370000</v>
+        <v>1982.37</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-1827.490000</v>
+        <v>-1827.49</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
         <v>46429.305665</v>
@@ -5060,105 +5476,105 @@
         <v>12.897029</v>
       </c>
       <c r="BU19" s="1">
-        <v>2367.430000</v>
+        <v>2367.4299999999998</v>
       </c>
       <c r="BV19" s="1">
-        <v>-2718.750000</v>
+        <v>-2718.75</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>46440.548483</v>
+        <v>46440.548482999999</v>
       </c>
       <c r="BY19" s="1">
         <v>12.900152</v>
       </c>
       <c r="BZ19" s="1">
-        <v>2852.120000</v>
+        <v>2852.12</v>
       </c>
       <c r="CA19" s="1">
-        <v>-3687.280000</v>
+        <v>-3687.28</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>46453.440499</v>
+        <v>46453.440498999997</v>
       </c>
       <c r="CD19" s="1">
-        <v>12.903733</v>
+        <v>12.903733000000001</v>
       </c>
       <c r="CE19" s="1">
-        <v>4280.300000</v>
+        <v>4280.3</v>
       </c>
       <c r="CF19" s="1">
-        <v>-6029.010000</v>
+        <v>-6029.01</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>46279.825880</v>
+        <v>46279.825879999997</v>
       </c>
       <c r="B20" s="1">
-        <v>12.855507</v>
+        <v>12.855506999999999</v>
       </c>
       <c r="C20" s="1">
-        <v>1245.700000</v>
+        <v>1245.7</v>
       </c>
       <c r="D20" s="1">
-        <v>-280.116000</v>
+        <v>-280.11599999999999</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
         <v>46290.243359</v>
       </c>
       <c r="G20" s="1">
-        <v>12.858401</v>
+        <v>12.858401000000001</v>
       </c>
       <c r="H20" s="1">
-        <v>1267.220000</v>
+        <v>1267.22</v>
       </c>
       <c r="I20" s="1">
-        <v>-246.532000</v>
+        <v>-246.53200000000001</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>46300.746139</v>
+        <v>46300.746139000003</v>
       </c>
       <c r="L20" s="1">
-        <v>12.861318</v>
+        <v>12.861318000000001</v>
       </c>
       <c r="M20" s="1">
-        <v>1302.380000</v>
+        <v>1302.3800000000001</v>
       </c>
       <c r="N20" s="1">
-        <v>-194.054000</v>
+        <v>-194.054</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>46311.240463</v>
+        <v>46311.240463000002</v>
       </c>
       <c r="Q20" s="1">
         <v>12.864233</v>
       </c>
       <c r="R20" s="1">
-        <v>1315.040000</v>
+        <v>1315.04</v>
       </c>
       <c r="S20" s="1">
-        <v>-178.978000</v>
+        <v>-178.97800000000001</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
         <v>46321.820129</v>
@@ -5167,88 +5583,88 @@
         <v>12.867172</v>
       </c>
       <c r="W20" s="1">
-        <v>1329.360000</v>
+        <v>1329.36</v>
       </c>
       <c r="X20" s="1">
-        <v>-167.739000</v>
+        <v>-167.739</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>46332.223217</v>
+        <v>46332.223216999999</v>
       </c>
       <c r="AA20" s="1">
-        <v>12.870062</v>
+        <v>12.870062000000001</v>
       </c>
       <c r="AB20" s="1">
-        <v>1347.820000</v>
+        <v>1347.82</v>
       </c>
       <c r="AC20" s="1">
-        <v>-167.387000</v>
+        <v>-167.387</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>46342.700212</v>
+        <v>46342.700212000003</v>
       </c>
       <c r="AF20" s="1">
-        <v>12.872972</v>
+        <v>12.872972000000001</v>
       </c>
       <c r="AG20" s="1">
-        <v>1361.270000</v>
+        <v>1361.27</v>
       </c>
       <c r="AH20" s="1">
-        <v>-177.833000</v>
+        <v>-177.833</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>46353.543255</v>
+        <v>46353.543254999997</v>
       </c>
       <c r="AK20" s="1">
-        <v>12.875984</v>
+        <v>12.875984000000001</v>
       </c>
       <c r="AL20" s="1">
-        <v>1382.400000</v>
+        <v>1382.4</v>
       </c>
       <c r="AM20" s="1">
-        <v>-208.119000</v>
+        <v>-208.119</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>46364.421047</v>
+        <v>46364.421047000003</v>
       </c>
       <c r="AP20" s="1">
         <v>12.879006</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1404.320000</v>
+        <v>1404.32</v>
       </c>
       <c r="AR20" s="1">
-        <v>-252.148000</v>
+        <v>-252.148</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
         <v>46375.161881</v>
       </c>
       <c r="AU20" s="1">
-        <v>12.881989</v>
+        <v>12.881989000000001</v>
       </c>
       <c r="AV20" s="1">
-        <v>1429.010000</v>
+        <v>1429.01</v>
       </c>
       <c r="AW20" s="1">
-        <v>-312.196000</v>
+        <v>-312.19600000000003</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
         <v>46386.450332</v>
@@ -5257,422 +5673,422 @@
         <v>12.885125</v>
       </c>
       <c r="BA20" s="1">
-        <v>1448.390000</v>
+        <v>1448.39</v>
       </c>
       <c r="BB20" s="1">
-        <v>-364.293000</v>
+        <v>-364.29300000000001</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>46397.145082</v>
+        <v>46397.145082000003</v>
       </c>
       <c r="BE20" s="1">
-        <v>12.888096</v>
+        <v>12.888096000000001</v>
       </c>
       <c r="BF20" s="1">
-        <v>1533.750000</v>
+        <v>1533.75</v>
       </c>
       <c r="BG20" s="1">
-        <v>-612.471000</v>
+        <v>-612.471</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>46408.157278</v>
+        <v>46408.157277999999</v>
       </c>
       <c r="BJ20" s="1">
-        <v>12.891155</v>
+        <v>12.891154999999999</v>
       </c>
       <c r="BK20" s="1">
-        <v>1688.180000</v>
+        <v>1688.18</v>
       </c>
       <c r="BL20" s="1">
-        <v>-1057.190000</v>
+        <v>-1057.19</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>46419.063807</v>
+        <v>46419.063806999999</v>
       </c>
       <c r="BO20" s="1">
-        <v>12.894184</v>
+        <v>12.894183999999999</v>
       </c>
       <c r="BP20" s="1">
-        <v>1982.170000</v>
+        <v>1982.17</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-1827.460000</v>
+        <v>-1827.46</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>46429.717842</v>
+        <v>46429.717841999998</v>
       </c>
       <c r="BT20" s="1">
-        <v>12.897144</v>
+        <v>12.897144000000001</v>
       </c>
       <c r="BU20" s="1">
-        <v>2368.050000</v>
+        <v>2368.0500000000002</v>
       </c>
       <c r="BV20" s="1">
-        <v>-2719.120000</v>
+        <v>-2719.12</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>46441.274130</v>
+        <v>46441.274129999998</v>
       </c>
       <c r="BY20" s="1">
         <v>12.900354</v>
       </c>
       <c r="BZ20" s="1">
-        <v>2852.420000</v>
+        <v>2852.42</v>
       </c>
       <c r="CA20" s="1">
-        <v>-3687.270000</v>
+        <v>-3687.27</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>46453.648849</v>
+        <v>46453.648848999997</v>
       </c>
       <c r="CD20" s="1">
         <v>12.903791</v>
       </c>
       <c r="CE20" s="1">
-        <v>4268.790000</v>
+        <v>4268.79</v>
       </c>
       <c r="CF20" s="1">
-        <v>-6015.650000</v>
+        <v>-6015.65</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>46280.172550</v>
+        <v>46280.172550000003</v>
       </c>
       <c r="B21" s="1">
         <v>12.855603</v>
       </c>
       <c r="C21" s="1">
-        <v>1245.690000</v>
+        <v>1245.69</v>
       </c>
       <c r="D21" s="1">
-        <v>-280.521000</v>
+        <v>-280.52100000000002</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
         <v>46290.585562</v>
       </c>
       <c r="G21" s="1">
-        <v>12.858496</v>
+        <v>12.858496000000001</v>
       </c>
       <c r="H21" s="1">
-        <v>1268.300000</v>
+        <v>1268.3</v>
       </c>
       <c r="I21" s="1">
-        <v>-245.566000</v>
+        <v>-245.566</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>46301.164732</v>
+        <v>46301.164731999997</v>
       </c>
       <c r="L21" s="1">
         <v>12.861435</v>
       </c>
       <c r="M21" s="1">
-        <v>1302.220000</v>
+        <v>1302.22</v>
       </c>
       <c r="N21" s="1">
-        <v>-193.948000</v>
+        <v>-193.94800000000001</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>46311.663581</v>
+        <v>46311.663581000001</v>
       </c>
       <c r="Q21" s="1">
-        <v>12.864351</v>
+        <v>12.864350999999999</v>
       </c>
       <c r="R21" s="1">
-        <v>1315.040000</v>
+        <v>1315.04</v>
       </c>
       <c r="S21" s="1">
-        <v>-178.865000</v>
+        <v>-178.86500000000001</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>46322.096400</v>
+        <v>46322.096400000002</v>
       </c>
       <c r="V21" s="1">
-        <v>12.867249</v>
+        <v>12.867248999999999</v>
       </c>
       <c r="W21" s="1">
-        <v>1329.520000</v>
+        <v>1329.52</v>
       </c>
       <c r="X21" s="1">
-        <v>-167.646000</v>
+        <v>-167.64599999999999</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>46332.568930</v>
+        <v>46332.568930000001</v>
       </c>
       <c r="AA21" s="1">
         <v>12.870158</v>
       </c>
       <c r="AB21" s="1">
-        <v>1347.630000</v>
+        <v>1347.63</v>
       </c>
       <c r="AC21" s="1">
-        <v>-167.355000</v>
+        <v>-167.35499999999999</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>46343.044931</v>
+        <v>46343.044930999997</v>
       </c>
       <c r="AF21" s="1">
         <v>12.873068</v>
       </c>
       <c r="AG21" s="1">
-        <v>1361.210000</v>
+        <v>1361.21</v>
       </c>
       <c r="AH21" s="1">
-        <v>-177.773000</v>
+        <v>-177.773</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>46353.892933</v>
+        <v>46353.892933000003</v>
       </c>
       <c r="AK21" s="1">
-        <v>12.876081</v>
+        <v>12.876080999999999</v>
       </c>
       <c r="AL21" s="1">
-        <v>1382.400000</v>
+        <v>1382.4</v>
       </c>
       <c r="AM21" s="1">
-        <v>-208.186000</v>
+        <v>-208.18600000000001</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>46365.146674</v>
+        <v>46365.146674000003</v>
       </c>
       <c r="AP21" s="1">
-        <v>12.879207</v>
+        <v>12.879206999999999</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1404.290000</v>
+        <v>1404.29</v>
       </c>
       <c r="AR21" s="1">
-        <v>-252.130000</v>
+        <v>-252.13</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
         <v>46375.888024</v>
       </c>
       <c r="AU21" s="1">
-        <v>12.882191</v>
+        <v>12.882191000000001</v>
       </c>
       <c r="AV21" s="1">
-        <v>1429.010000</v>
+        <v>1429.01</v>
       </c>
       <c r="AW21" s="1">
-        <v>-312.186000</v>
+        <v>-312.18599999999998</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>46386.810427</v>
+        <v>46386.810426999997</v>
       </c>
       <c r="AZ21" s="1">
         <v>12.885225</v>
       </c>
       <c r="BA21" s="1">
-        <v>1448.400000</v>
+        <v>1448.4</v>
       </c>
       <c r="BB21" s="1">
-        <v>-364.235000</v>
+        <v>-364.23500000000001</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>46397.534427</v>
+        <v>46397.534426999999</v>
       </c>
       <c r="BE21" s="1">
         <v>12.888204</v>
       </c>
       <c r="BF21" s="1">
-        <v>1533.790000</v>
+        <v>1533.79</v>
       </c>
       <c r="BG21" s="1">
-        <v>-612.436000</v>
+        <v>-612.43600000000004</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>46408.534702</v>
+        <v>46408.534701999997</v>
       </c>
       <c r="BJ21" s="1">
-        <v>12.891260</v>
+        <v>12.891260000000001</v>
       </c>
       <c r="BK21" s="1">
-        <v>1688.090000</v>
+        <v>1688.09</v>
       </c>
       <c r="BL21" s="1">
-        <v>-1057.240000</v>
+        <v>-1057.24</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>46419.769087</v>
+        <v>46419.769087000001</v>
       </c>
       <c r="BO21" s="1">
-        <v>12.894380</v>
+        <v>12.89438</v>
       </c>
       <c r="BP21" s="1">
-        <v>1982.240000</v>
+        <v>1982.24</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-1827.650000</v>
+        <v>-1827.65</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>46430.507473</v>
+        <v>46430.507472999998</v>
       </c>
       <c r="BT21" s="1">
         <v>12.897363</v>
       </c>
       <c r="BU21" s="1">
-        <v>2368.890000</v>
+        <v>2368.89</v>
       </c>
       <c r="BV21" s="1">
-        <v>-2719.150000</v>
+        <v>-2719.15</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>46441.453185</v>
+        <v>46441.453184999998</v>
       </c>
       <c r="BY21" s="1">
         <v>12.900404</v>
       </c>
       <c r="BZ21" s="1">
-        <v>2851.890000</v>
+        <v>2851.89</v>
       </c>
       <c r="CA21" s="1">
-        <v>-3688.170000</v>
+        <v>-3688.17</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>46454.166146</v>
+        <v>46454.166146000003</v>
       </c>
       <c r="CD21" s="1">
-        <v>12.903935</v>
+        <v>12.903935000000001</v>
       </c>
       <c r="CE21" s="1">
-        <v>4272.730000</v>
+        <v>4272.7299999999996</v>
       </c>
       <c r="CF21" s="1">
-        <v>-6017.000000</v>
+        <v>-6017</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>46280.513336</v>
+        <v>46280.513336000004</v>
       </c>
       <c r="B22" s="1">
         <v>12.855698</v>
       </c>
       <c r="C22" s="1">
-        <v>1245.750000</v>
+        <v>1245.75</v>
       </c>
       <c r="D22" s="1">
-        <v>-280.382000</v>
+        <v>-280.38200000000001</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>46291.016124</v>
+        <v>46291.016124000002</v>
       </c>
       <c r="G22" s="1">
         <v>12.858616</v>
       </c>
       <c r="H22" s="1">
-        <v>1267.710000</v>
+        <v>1267.71</v>
       </c>
       <c r="I22" s="1">
-        <v>-246.189000</v>
+        <v>-246.18899999999999</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>46301.437559</v>
+        <v>46301.437558999998</v>
       </c>
       <c r="L22" s="1">
-        <v>12.861510</v>
+        <v>12.861510000000001</v>
       </c>
       <c r="M22" s="1">
-        <v>1302.510000</v>
+        <v>1302.51</v>
       </c>
       <c r="N22" s="1">
-        <v>-193.746000</v>
+        <v>-193.74600000000001</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>46311.958172</v>
+        <v>46311.958171999999</v>
       </c>
       <c r="Q22" s="1">
         <v>12.864433</v>
       </c>
       <c r="R22" s="1">
-        <v>1315.050000</v>
+        <v>1315.05</v>
       </c>
       <c r="S22" s="1">
-        <v>-178.890000</v>
+        <v>-178.89</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
         <v>46322.442143</v>
@@ -5681,315 +6097,315 @@
         <v>12.867345</v>
       </c>
       <c r="W22" s="1">
-        <v>1329.350000</v>
+        <v>1329.35</v>
       </c>
       <c r="X22" s="1">
-        <v>-167.858000</v>
+        <v>-167.858</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>46332.921121</v>
+        <v>46332.921120999999</v>
       </c>
       <c r="AA22" s="1">
-        <v>12.870256</v>
+        <v>12.870255999999999</v>
       </c>
       <c r="AB22" s="1">
-        <v>1347.810000</v>
+        <v>1347.81</v>
       </c>
       <c r="AC22" s="1">
-        <v>-167.379000</v>
+        <v>-167.37899999999999</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>46343.384197</v>
+        <v>46343.384196999999</v>
       </c>
       <c r="AF22" s="1">
-        <v>12.873162</v>
+        <v>12.873162000000001</v>
       </c>
       <c r="AG22" s="1">
-        <v>1361.210000</v>
+        <v>1361.21</v>
       </c>
       <c r="AH22" s="1">
-        <v>-177.789000</v>
+        <v>-177.78899999999999</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>46354.590804</v>
+        <v>46354.590803999999</v>
       </c>
       <c r="AK22" s="1">
         <v>12.876275</v>
       </c>
       <c r="AL22" s="1">
-        <v>1382.420000</v>
+        <v>1382.42</v>
       </c>
       <c r="AM22" s="1">
-        <v>-208.162000</v>
+        <v>-208.16200000000001</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>46365.523622</v>
+        <v>46365.523622000001</v>
       </c>
       <c r="AP22" s="1">
-        <v>12.879312</v>
+        <v>12.879312000000001</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1404.330000</v>
+        <v>1404.33</v>
       </c>
       <c r="AR22" s="1">
-        <v>-252.144000</v>
+        <v>-252.14400000000001</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>46376.253576</v>
+        <v>46376.253576000003</v>
       </c>
       <c r="AU22" s="1">
-        <v>12.882293</v>
+        <v>12.882293000000001</v>
       </c>
       <c r="AV22" s="1">
-        <v>1429.010000</v>
+        <v>1429.01</v>
       </c>
       <c r="AW22" s="1">
-        <v>-312.207000</v>
+        <v>-312.20699999999999</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>46387.165065</v>
+        <v>46387.165065000001</v>
       </c>
       <c r="AZ22" s="1">
-        <v>12.885324</v>
+        <v>12.885324000000001</v>
       </c>
       <c r="BA22" s="1">
-        <v>1448.390000</v>
+        <v>1448.39</v>
       </c>
       <c r="BB22" s="1">
-        <v>-364.319000</v>
+        <v>-364.31900000000002</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>46398.206506</v>
+        <v>46398.206506000002</v>
       </c>
       <c r="BE22" s="1">
         <v>12.888391</v>
       </c>
       <c r="BF22" s="1">
-        <v>1533.780000</v>
+        <v>1533.78</v>
       </c>
       <c r="BG22" s="1">
-        <v>-612.467000</v>
+        <v>-612.46699999999998</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>46409.221699</v>
+        <v>46409.221699000002</v>
       </c>
       <c r="BJ22" s="1">
-        <v>12.891450</v>
+        <v>12.891450000000001</v>
       </c>
       <c r="BK22" s="1">
-        <v>1688.130000</v>
+        <v>1688.13</v>
       </c>
       <c r="BL22" s="1">
-        <v>-1057.160000</v>
+        <v>-1057.1600000000001</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>46419.881679</v>
+        <v>46419.881678999998</v>
       </c>
       <c r="BO22" s="1">
-        <v>12.894412</v>
+        <v>12.894412000000001</v>
       </c>
       <c r="BP22" s="1">
-        <v>1982.190000</v>
+        <v>1982.19</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-1827.420000</v>
+        <v>-1827.42</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>46431.015871</v>
+        <v>46431.015871000003</v>
       </c>
       <c r="BT22" s="1">
         <v>12.897504</v>
       </c>
       <c r="BU22" s="1">
-        <v>2369.230000</v>
+        <v>2369.23</v>
       </c>
       <c r="BV22" s="1">
-        <v>-2719.360000</v>
+        <v>-2719.36</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>46441.880737</v>
+        <v>46441.880736999999</v>
       </c>
       <c r="BY22" s="1">
         <v>12.900522</v>
       </c>
       <c r="BZ22" s="1">
-        <v>2851.100000</v>
+        <v>2851.1</v>
       </c>
       <c r="CA22" s="1">
-        <v>-3687.640000</v>
+        <v>-3687.64</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>46454.719681</v>
+        <v>46454.719681000002</v>
       </c>
       <c r="CD22" s="1">
-        <v>12.904089</v>
+        <v>12.904089000000001</v>
       </c>
       <c r="CE22" s="1">
-        <v>4276.890000</v>
+        <v>4276.8900000000003</v>
       </c>
       <c r="CF22" s="1">
-        <v>-6023.280000</v>
+        <v>-6023.28</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>46280.941845</v>
+        <v>46280.941845000001</v>
       </c>
       <c r="B23" s="1">
         <v>12.855817</v>
       </c>
       <c r="C23" s="1">
-        <v>1245.630000</v>
+        <v>1245.6300000000001</v>
       </c>
       <c r="D23" s="1">
-        <v>-280.513000</v>
+        <v>-280.51299999999998</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
         <v>46291.283464</v>
       </c>
       <c r="G23" s="1">
-        <v>12.858690</v>
+        <v>12.858689999999999</v>
       </c>
       <c r="H23" s="1">
-        <v>1267.260000</v>
+        <v>1267.26</v>
       </c>
       <c r="I23" s="1">
-        <v>-245.328000</v>
+        <v>-245.328</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>46301.783242</v>
+        <v>46301.783241999998</v>
       </c>
       <c r="L23" s="1">
         <v>12.861606</v>
       </c>
       <c r="M23" s="1">
-        <v>1302.720000</v>
+        <v>1302.72</v>
       </c>
       <c r="N23" s="1">
-        <v>-193.737000</v>
+        <v>-193.73699999999999</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>46312.305058</v>
+        <v>46312.305057999998</v>
       </c>
       <c r="Q23" s="1">
-        <v>12.864529</v>
+        <v>12.864528999999999</v>
       </c>
       <c r="R23" s="1">
-        <v>1315.070000</v>
+        <v>1315.07</v>
       </c>
       <c r="S23" s="1">
-        <v>-178.839000</v>
+        <v>-178.839</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>46322.783854</v>
+        <v>46322.783854000001</v>
       </c>
       <c r="V23" s="1">
-        <v>12.867440</v>
+        <v>12.86744</v>
       </c>
       <c r="W23" s="1">
-        <v>1329.260000</v>
+        <v>1329.26</v>
       </c>
       <c r="X23" s="1">
-        <v>-167.966000</v>
+        <v>-167.96600000000001</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>46333.615983</v>
+        <v>46333.615983000003</v>
       </c>
       <c r="AA23" s="1">
-        <v>12.870449</v>
+        <v>12.870449000000001</v>
       </c>
       <c r="AB23" s="1">
-        <v>1347.720000</v>
+        <v>1347.72</v>
       </c>
       <c r="AC23" s="1">
-        <v>-167.335000</v>
+        <v>-167.33500000000001</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>46344.071155</v>
+        <v>46344.071154999998</v>
       </c>
       <c r="AF23" s="1">
         <v>12.873353</v>
       </c>
       <c r="AG23" s="1">
-        <v>1361.240000</v>
+        <v>1361.24</v>
       </c>
       <c r="AH23" s="1">
-        <v>-177.762000</v>
+        <v>-177.762</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>46354.941013</v>
+        <v>46354.941013000003</v>
       </c>
       <c r="AK23" s="1">
-        <v>12.876373</v>
+        <v>12.876372999999999</v>
       </c>
       <c r="AL23" s="1">
-        <v>1382.390000</v>
+        <v>1382.39</v>
       </c>
       <c r="AM23" s="1">
-        <v>-208.104000</v>
+        <v>-208.10400000000001</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
         <v>46365.886693</v>
@@ -5998,73 +6414,73 @@
         <v>12.879413</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1404.280000</v>
+        <v>1404.28</v>
       </c>
       <c r="AR23" s="1">
-        <v>-252.120000</v>
+        <v>-252.12</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>46376.617639</v>
+        <v>46376.617638999996</v>
       </c>
       <c r="AU23" s="1">
         <v>12.882394</v>
       </c>
       <c r="AV23" s="1">
-        <v>1429.020000</v>
+        <v>1429.02</v>
       </c>
       <c r="AW23" s="1">
-        <v>-312.209000</v>
+        <v>-312.209</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>46387.845613</v>
+        <v>46387.845612999998</v>
       </c>
       <c r="AZ23" s="1">
         <v>12.885513</v>
       </c>
       <c r="BA23" s="1">
-        <v>1448.400000</v>
+        <v>1448.4</v>
       </c>
       <c r="BB23" s="1">
-        <v>-364.257000</v>
+        <v>-364.25700000000001</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>46398.616202</v>
+        <v>46398.616201999997</v>
       </c>
       <c r="BE23" s="1">
         <v>12.888505</v>
       </c>
       <c r="BF23" s="1">
-        <v>1533.790000</v>
+        <v>1533.79</v>
       </c>
       <c r="BG23" s="1">
-        <v>-612.447000</v>
+        <v>-612.447</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>46409.691404</v>
+        <v>46409.691403999997</v>
       </c>
       <c r="BJ23" s="1">
         <v>12.891581</v>
       </c>
       <c r="BK23" s="1">
-        <v>1688.070000</v>
+        <v>1688.07</v>
       </c>
       <c r="BL23" s="1">
-        <v>-1057.100000</v>
+        <v>-1057.0999999999999</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
         <v>46420.303775</v>
@@ -6073,831 +6489,832 @@
         <v>12.894529</v>
       </c>
       <c r="BP23" s="1">
-        <v>1982.100000</v>
+        <v>1982.1</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-1827.570000</v>
+        <v>-1827.57</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>46431.444945</v>
+        <v>46431.444945000003</v>
       </c>
       <c r="BT23" s="1">
         <v>12.897624</v>
       </c>
       <c r="BU23" s="1">
-        <v>2369.390000</v>
+        <v>2369.39</v>
       </c>
       <c r="BV23" s="1">
-        <v>-2719.010000</v>
+        <v>-2719.01</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>46442.326910</v>
+        <v>46442.326910000003</v>
       </c>
       <c r="BY23" s="1">
         <v>12.900646</v>
       </c>
       <c r="BZ23" s="1">
-        <v>2852.100000</v>
+        <v>2852.1</v>
       </c>
       <c r="CA23" s="1">
-        <v>-3687.280000</v>
+        <v>-3687.28</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>46455.249903</v>
+        <v>46455.249903000004</v>
       </c>
       <c r="CD23" s="1">
-        <v>12.904236</v>
+        <v>12.904235999999999</v>
       </c>
       <c r="CE23" s="1">
-        <v>4262.280000</v>
+        <v>4262.28</v>
       </c>
       <c r="CF23" s="1">
-        <v>-6017.530000</v>
+        <v>-6017.53</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>46281.210181</v>
+        <v>46281.210181000002</v>
       </c>
       <c r="B24" s="1">
-        <v>12.855892</v>
+        <v>12.855892000000001</v>
       </c>
       <c r="C24" s="1">
-        <v>1245.850000</v>
+        <v>1245.8499999999999</v>
       </c>
       <c r="D24" s="1">
-        <v>-280.507000</v>
+        <v>-280.50700000000001</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>46291.626664</v>
+        <v>46291.626664000003</v>
       </c>
       <c r="G24" s="1">
-        <v>12.858785</v>
+        <v>12.858784999999999</v>
       </c>
       <c r="H24" s="1">
-        <v>1268.650000</v>
+        <v>1268.6500000000001</v>
       </c>
       <c r="I24" s="1">
-        <v>-245.084000</v>
+        <v>-245.084</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>46302.128489</v>
+        <v>46302.128489000002</v>
       </c>
       <c r="L24" s="1">
-        <v>12.861702</v>
+        <v>12.861701999999999</v>
       </c>
       <c r="M24" s="1">
-        <v>1302.450000</v>
+        <v>1302.45</v>
       </c>
       <c r="N24" s="1">
-        <v>-193.824000</v>
+        <v>-193.82400000000001</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>46312.655060</v>
+        <v>46312.655059999997</v>
       </c>
       <c r="Q24" s="1">
-        <v>12.864626</v>
+        <v>12.864625999999999</v>
       </c>
       <c r="R24" s="1">
-        <v>1315.110000</v>
+        <v>1315.11</v>
       </c>
       <c r="S24" s="1">
-        <v>-178.768000</v>
+        <v>-178.768</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
         <v>46323.473305</v>
       </c>
       <c r="V24" s="1">
-        <v>12.867631</v>
+        <v>12.867630999999999</v>
       </c>
       <c r="W24" s="1">
-        <v>1329.190000</v>
+        <v>1329.19</v>
       </c>
       <c r="X24" s="1">
-        <v>-167.843000</v>
+        <v>-167.84299999999999</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>46333.966655</v>
+        <v>46333.966654999997</v>
       </c>
       <c r="AA24" s="1">
-        <v>12.870546</v>
+        <v>12.870545999999999</v>
       </c>
       <c r="AB24" s="1">
-        <v>1347.740000</v>
+        <v>1347.74</v>
       </c>
       <c r="AC24" s="1">
-        <v>-167.378000</v>
+        <v>-167.37799999999999</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>46344.418355</v>
+        <v>46344.418355000002</v>
       </c>
       <c r="AF24" s="1">
-        <v>12.873450</v>
+        <v>12.87345</v>
       </c>
       <c r="AG24" s="1">
-        <v>1361.250000</v>
+        <v>1361.25</v>
       </c>
       <c r="AH24" s="1">
-        <v>-177.704000</v>
+        <v>-177.70400000000001</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>46355.286693</v>
+        <v>46355.286693000002</v>
       </c>
       <c r="AK24" s="1">
         <v>12.876469</v>
       </c>
       <c r="AL24" s="1">
-        <v>1382.370000</v>
+        <v>1382.37</v>
       </c>
       <c r="AM24" s="1">
-        <v>-208.103000</v>
+        <v>-208.10300000000001</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>46366.553849</v>
+        <v>46366.553849000004</v>
       </c>
       <c r="AP24" s="1">
         <v>12.879598</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1404.300000</v>
+        <v>1404.3</v>
       </c>
       <c r="AR24" s="1">
-        <v>-252.155000</v>
+        <v>-252.155</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>46377.291206</v>
+        <v>46377.291206000002</v>
       </c>
       <c r="AU24" s="1">
         <v>12.882581</v>
       </c>
       <c r="AV24" s="1">
-        <v>1429.000000</v>
+        <v>1429</v>
       </c>
       <c r="AW24" s="1">
-        <v>-312.208000</v>
+        <v>-312.20800000000003</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>46388.270188</v>
+        <v>46388.270188000002</v>
       </c>
       <c r="AZ24" s="1">
         <v>12.885631</v>
       </c>
       <c r="BA24" s="1">
-        <v>1448.400000</v>
+        <v>1448.4</v>
       </c>
       <c r="BB24" s="1">
-        <v>-364.290000</v>
+        <v>-364.29</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>46399.007081</v>
+        <v>46399.007081000003</v>
       </c>
       <c r="BE24" s="1">
-        <v>12.888613</v>
+        <v>12.888612999999999</v>
       </c>
       <c r="BF24" s="1">
-        <v>1533.780000</v>
+        <v>1533.78</v>
       </c>
       <c r="BG24" s="1">
-        <v>-612.450000</v>
+        <v>-612.45000000000005</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>46410.084699</v>
+        <v>46410.084698999999</v>
       </c>
       <c r="BJ24" s="1">
-        <v>12.891690</v>
+        <v>12.891690000000001</v>
       </c>
       <c r="BK24" s="1">
-        <v>1688.120000</v>
+        <v>1688.12</v>
       </c>
       <c r="BL24" s="1">
-        <v>-1057.060000</v>
+        <v>-1057.06</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>46420.701596</v>
+        <v>46420.701595999999</v>
       </c>
       <c r="BO24" s="1">
         <v>12.894639</v>
       </c>
       <c r="BP24" s="1">
-        <v>1982.160000</v>
+        <v>1982.16</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-1827.530000</v>
+        <v>-1827.53</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>46431.876926</v>
+        <v>46431.876925999997</v>
       </c>
       <c r="BT24" s="1">
-        <v>12.897744</v>
+        <v>12.897743999999999</v>
       </c>
       <c r="BU24" s="1">
-        <v>2370.290000</v>
+        <v>2370.29</v>
       </c>
       <c r="BV24" s="1">
-        <v>-2718.960000</v>
+        <v>-2718.96</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>46442.757664</v>
+        <v>46442.757663999997</v>
       </c>
       <c r="BY24" s="1">
-        <v>12.900766</v>
+        <v>12.900766000000001</v>
       </c>
       <c r="BZ24" s="1">
-        <v>2851.300000</v>
+        <v>2851.3</v>
       </c>
       <c r="CA24" s="1">
-        <v>-3687.480000</v>
+        <v>-3687.48</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>46455.766238</v>
+        <v>46455.766237999997</v>
       </c>
       <c r="CD24" s="1">
-        <v>12.904380</v>
+        <v>12.90438</v>
       </c>
       <c r="CE24" s="1">
-        <v>4257.360000</v>
+        <v>4257.3599999999997</v>
       </c>
       <c r="CF24" s="1">
-        <v>-6034.170000</v>
+        <v>-6034.17</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>46281.552457</v>
+        <v>46281.552456999998</v>
       </c>
       <c r="B25" s="1">
-        <v>12.855987</v>
+        <v>12.855987000000001</v>
       </c>
       <c r="C25" s="1">
-        <v>1245.850000</v>
+        <v>1245.8499999999999</v>
       </c>
       <c r="D25" s="1">
-        <v>-280.267000</v>
+        <v>-280.267</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
         <v>46291.973693</v>
       </c>
       <c r="G25" s="1">
-        <v>12.858882</v>
+        <v>12.858881999999999</v>
       </c>
       <c r="H25" s="1">
-        <v>1267.220000</v>
+        <v>1267.22</v>
       </c>
       <c r="I25" s="1">
-        <v>-245.907000</v>
+        <v>-245.90700000000001</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>46302.819385</v>
+        <v>46302.819385000003</v>
       </c>
       <c r="L25" s="1">
-        <v>12.861894</v>
+        <v>12.861893999999999</v>
       </c>
       <c r="M25" s="1">
-        <v>1302.490000</v>
+        <v>1302.49</v>
       </c>
       <c r="N25" s="1">
-        <v>-193.872000</v>
+        <v>-193.87200000000001</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>46313.350939</v>
+        <v>46313.350939000004</v>
       </c>
       <c r="Q25" s="1">
-        <v>12.864820</v>
+        <v>12.86482</v>
       </c>
       <c r="R25" s="1">
-        <v>1315.120000</v>
+        <v>1315.12</v>
       </c>
       <c r="S25" s="1">
-        <v>-178.831000</v>
+        <v>-178.83099999999999</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>46323.814044</v>
+        <v>46323.814043999999</v>
       </c>
       <c r="V25" s="1">
-        <v>12.867726</v>
+        <v>12.867725999999999</v>
       </c>
       <c r="W25" s="1">
-        <v>1329.350000</v>
+        <v>1329.35</v>
       </c>
       <c r="X25" s="1">
-        <v>-167.598000</v>
+        <v>-167.59800000000001</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>46334.315342</v>
+        <v>46334.315342000002</v>
       </c>
       <c r="AA25" s="1">
-        <v>12.870643</v>
+        <v>12.870642999999999</v>
       </c>
       <c r="AB25" s="1">
-        <v>1347.640000</v>
+        <v>1347.64</v>
       </c>
       <c r="AC25" s="1">
-        <v>-167.475000</v>
+        <v>-167.47499999999999</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>46344.759105</v>
+        <v>46344.759104999997</v>
       </c>
       <c r="AF25" s="1">
-        <v>12.873544</v>
+        <v>12.873544000000001</v>
       </c>
       <c r="AG25" s="1">
-        <v>1361.280000</v>
+        <v>1361.28</v>
       </c>
       <c r="AH25" s="1">
-        <v>-177.682000</v>
+        <v>-177.68199999999999</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>46355.951828</v>
+        <v>46355.951827999997</v>
       </c>
       <c r="AK25" s="1">
-        <v>12.876653</v>
+        <v>12.876652999999999</v>
       </c>
       <c r="AL25" s="1">
-        <v>1382.370000</v>
+        <v>1382.37</v>
       </c>
       <c r="AM25" s="1">
-        <v>-208.144000</v>
+        <v>-208.14400000000001</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>46366.966980</v>
+        <v>46366.966979999997</v>
       </c>
       <c r="AP25" s="1">
-        <v>12.879713</v>
+        <v>12.879713000000001</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1404.310000</v>
+        <v>1404.31</v>
       </c>
       <c r="AR25" s="1">
-        <v>-252.172000</v>
+        <v>-252.172</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>46377.711845</v>
+        <v>46377.711844999998</v>
       </c>
       <c r="AU25" s="1">
         <v>12.882698</v>
       </c>
       <c r="AV25" s="1">
-        <v>1429.010000</v>
+        <v>1429.01</v>
       </c>
       <c r="AW25" s="1">
-        <v>-312.197000</v>
+        <v>-312.197</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>46388.648601</v>
+        <v>46388.648601000001</v>
       </c>
       <c r="AZ25" s="1">
         <v>12.885736</v>
       </c>
       <c r="BA25" s="1">
-        <v>1448.410000</v>
+        <v>1448.41</v>
       </c>
       <c r="BB25" s="1">
-        <v>-364.279000</v>
+        <v>-364.279</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>46399.369130</v>
+        <v>46399.369129999999</v>
       </c>
       <c r="BE25" s="1">
         <v>12.888714</v>
       </c>
       <c r="BF25" s="1">
-        <v>1533.760000</v>
+        <v>1533.76</v>
       </c>
       <c r="BG25" s="1">
-        <v>-612.454000</v>
+        <v>-612.45399999999995</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>46410.456698</v>
+        <v>46410.456698000002</v>
       </c>
       <c r="BJ25" s="1">
-        <v>12.891794</v>
+        <v>12.891794000000001</v>
       </c>
       <c r="BK25" s="1">
-        <v>1688.070000</v>
+        <v>1688.07</v>
       </c>
       <c r="BL25" s="1">
-        <v>-1057.100000</v>
+        <v>-1057.0999999999999</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>46421.126668</v>
+        <v>46421.126667999997</v>
       </c>
       <c r="BO25" s="1">
         <v>12.894757</v>
       </c>
       <c r="BP25" s="1">
-        <v>1982.160000</v>
+        <v>1982.16</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-1827.480000</v>
+        <v>-1827.48</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
         <v>46432.287613</v>
       </c>
       <c r="BT25" s="1">
-        <v>12.897858</v>
+        <v>12.897857999999999</v>
       </c>
       <c r="BU25" s="1">
-        <v>2370.560000</v>
+        <v>2370.56</v>
       </c>
       <c r="BV25" s="1">
-        <v>-2718.750000</v>
+        <v>-2718.75</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>46443.180787</v>
+        <v>46443.180786999998</v>
       </c>
       <c r="BY25" s="1">
         <v>12.900884</v>
       </c>
       <c r="BZ25" s="1">
-        <v>2851.800000</v>
+        <v>2851.8</v>
       </c>
       <c r="CA25" s="1">
-        <v>-3687.790000</v>
+        <v>-3687.79</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>46456.282573</v>
+        <v>46456.282572999997</v>
       </c>
       <c r="CD25" s="1">
-        <v>12.904523</v>
+        <v>12.904522999999999</v>
       </c>
       <c r="CE25" s="1">
-        <v>4274.950000</v>
+        <v>4274.95</v>
       </c>
       <c r="CF25" s="1">
-        <v>-6036.380000</v>
+        <v>-6036.38</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>46282.236900</v>
+        <v>46282.236900000004</v>
       </c>
       <c r="B26" s="1">
-        <v>12.856177</v>
+        <v>12.856177000000001</v>
       </c>
       <c r="C26" s="1">
-        <v>1245.720000</v>
+        <v>1245.72</v>
       </c>
       <c r="D26" s="1">
-        <v>-280.309000</v>
+        <v>-280.30900000000003</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>46292.661846</v>
+        <v>46292.661846000003</v>
       </c>
       <c r="G26" s="1">
         <v>12.859073</v>
       </c>
       <c r="H26" s="1">
-        <v>1268.390000</v>
+        <v>1268.3900000000001</v>
       </c>
       <c r="I26" s="1">
-        <v>-246.643000</v>
+        <v>-246.643</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>46303.163610</v>
+        <v>46303.163610000003</v>
       </c>
       <c r="L26" s="1">
-        <v>12.861990</v>
+        <v>12.86199</v>
       </c>
       <c r="M26" s="1">
-        <v>1302.560000</v>
+        <v>1302.56</v>
       </c>
       <c r="N26" s="1">
-        <v>-193.913000</v>
+        <v>-193.91300000000001</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>46313.702603</v>
+        <v>46313.702602999998</v>
       </c>
       <c r="Q26" s="1">
         <v>12.864917</v>
       </c>
       <c r="R26" s="1">
-        <v>1315.050000</v>
+        <v>1315.05</v>
       </c>
       <c r="S26" s="1">
-        <v>-178.876000</v>
+        <v>-178.876</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>46324.159262</v>
+        <v>46324.159262000001</v>
       </c>
       <c r="V26" s="1">
         <v>12.867822</v>
       </c>
       <c r="W26" s="1">
-        <v>1329.120000</v>
+        <v>1329.12</v>
       </c>
       <c r="X26" s="1">
-        <v>-167.734000</v>
+        <v>-167.73400000000001</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>46334.979486</v>
+        <v>46334.979485999997</v>
       </c>
       <c r="AA26" s="1">
-        <v>12.870828</v>
+        <v>12.870827999999999</v>
       </c>
       <c r="AB26" s="1">
-        <v>1347.760000</v>
+        <v>1347.76</v>
       </c>
       <c r="AC26" s="1">
-        <v>-167.385000</v>
+        <v>-167.38499999999999</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>46345.412336</v>
+        <v>46345.412336000001</v>
       </c>
       <c r="AF26" s="1">
         <v>12.873726</v>
       </c>
       <c r="AG26" s="1">
-        <v>1361.280000</v>
+        <v>1361.28</v>
       </c>
       <c r="AH26" s="1">
-        <v>-177.791000</v>
+        <v>-177.791</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>46356.332290</v>
+        <v>46356.332289999998</v>
       </c>
       <c r="AK26" s="1">
         <v>12.876759</v>
       </c>
       <c r="AL26" s="1">
-        <v>1382.410000</v>
+        <v>1382.41</v>
       </c>
       <c r="AM26" s="1">
-        <v>-208.107000</v>
+        <v>-208.107</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>46367.347412</v>
+        <v>46367.347412000003</v>
       </c>
       <c r="AP26" s="1">
-        <v>12.879819</v>
+        <v>12.879818999999999</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1404.300000</v>
+        <v>1404.3</v>
       </c>
       <c r="AR26" s="1">
-        <v>-252.150000</v>
+        <v>-252.15</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>46378.077862</v>
+        <v>46378.077861999998</v>
       </c>
       <c r="AU26" s="1">
         <v>12.882799</v>
       </c>
       <c r="AV26" s="1">
-        <v>1428.990000</v>
+        <v>1428.99</v>
       </c>
       <c r="AW26" s="1">
-        <v>-312.177000</v>
+        <v>-312.17700000000002</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>46389.006711</v>
+        <v>46389.006711000002</v>
       </c>
       <c r="AZ26" s="1">
         <v>12.885835</v>
       </c>
       <c r="BA26" s="1">
-        <v>1448.360000</v>
+        <v>1448.36</v>
       </c>
       <c r="BB26" s="1">
-        <v>-364.285000</v>
+        <v>-364.28500000000003</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>46399.783289</v>
+        <v>46399.783288999999</v>
       </c>
       <c r="BE26" s="1">
-        <v>12.888829</v>
+        <v>12.888828999999999</v>
       </c>
       <c r="BF26" s="1">
-        <v>1533.770000</v>
+        <v>1533.77</v>
       </c>
       <c r="BG26" s="1">
-        <v>-612.411000</v>
+        <v>-612.41099999999994</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>46410.879788</v>
+        <v>46410.879787999998</v>
       </c>
       <c r="BJ26" s="1">
         <v>12.891911</v>
       </c>
       <c r="BK26" s="1">
-        <v>1688.060000</v>
+        <v>1688.06</v>
       </c>
       <c r="BL26" s="1">
-        <v>-1057.100000</v>
+        <v>-1057.0999999999999</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>46421.520985</v>
+        <v>46421.520985000003</v>
       </c>
       <c r="BO26" s="1">
         <v>12.894867</v>
       </c>
       <c r="BP26" s="1">
-        <v>1982.150000</v>
+        <v>1982.15</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-1827.440000</v>
+        <v>-1827.44</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>46432.717150</v>
+        <v>46432.717149999997</v>
       </c>
       <c r="BT26" s="1">
-        <v>12.897977</v>
+        <v>12.897976999999999</v>
       </c>
       <c r="BU26" s="1">
-        <v>2370.910000</v>
+        <v>2370.91</v>
       </c>
       <c r="BV26" s="1">
-        <v>-2718.490000</v>
+        <v>-2718.49</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>46443.591440</v>
+        <v>46443.591439999997</v>
       </c>
       <c r="BY26" s="1">
         <v>12.900998</v>
       </c>
       <c r="BZ26" s="1">
-        <v>2851.530000</v>
+        <v>2851.53</v>
       </c>
       <c r="CA26" s="1">
-        <v>-3687.880000</v>
+        <v>-3687.88</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>46456.800427</v>
+        <v>46456.800427000002</v>
       </c>
       <c r="CD26" s="1">
         <v>12.904667</v>
       </c>
       <c r="CE26" s="1">
-        <v>4273.740000</v>
+        <v>4273.74</v>
       </c>
       <c r="CF26" s="1">
-        <v>-6036.510000</v>
+        <v>-6036.51</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>